--- a/datafiles/population.xlsx
+++ b/datafiles/population.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3640" uniqueCount="1627">
   <si>
     <t>Country</t>
   </si>
@@ -2875,6 +2875,2025 @@
   </si>
   <si>
     <t>National annual estimate[212]</t>
+  </si>
+  <si>
+    <t>–</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>7,997,701,000</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>11 Dec 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> China</t>
+  </si>
+  <si>
+    <t>1,412,600,000</t>
+  </si>
+  <si>
+    <t>17.7%</t>
+  </si>
+  <si>
+    <t>31 Dec 2021</t>
+  </si>
+  <si>
+    <t>Official estimate[4]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> India</t>
+  </si>
+  <si>
+    <t>1,375,586,000</t>
+  </si>
+  <si>
+    <t>17.2%</t>
+  </si>
+  <si>
+    <t>1 Mar 2022</t>
+  </si>
+  <si>
+    <t>Official projection[5]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United States</t>
+  </si>
+  <si>
+    <t>333,332,642</t>
+  </si>
+  <si>
+    <t>4.17%</t>
+  </si>
+  <si>
+    <t>9 Dec 2022</t>
+  </si>
+  <si>
+    <t>Population clock[6]</t>
+  </si>
+  <si>
+    <t>275,773,800</t>
+  </si>
+  <si>
+    <t>3.45%</t>
+  </si>
+  <si>
+    <t>1 Jul 2022</t>
+  </si>
+  <si>
+    <t>Official estimate[7]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pakistan</t>
+  </si>
+  <si>
+    <t>235,825,000</t>
+  </si>
+  <si>
+    <t>2.95%</t>
+  </si>
+  <si>
+    <t>UN projection[3]</t>
+  </si>
+  <si>
+    <t>218,541,000</t>
+  </si>
+  <si>
+    <t>2.73%</t>
+  </si>
+  <si>
+    <t>215,503,031</t>
+  </si>
+  <si>
+    <t>2.69%</t>
+  </si>
+  <si>
+    <t>165,158,616</t>
+  </si>
+  <si>
+    <t>2.07%</t>
+  </si>
+  <si>
+    <t>15 Jun 2022</t>
+  </si>
+  <si>
+    <t>2022 preliminary census result[9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Russia</t>
+  </si>
+  <si>
+    <t>145,100,000</t>
+  </si>
+  <si>
+    <t>1.81%</t>
+  </si>
+  <si>
+    <t>1 Sep 2022</t>
+  </si>
+  <si>
+    <t>Official estimate[10]</t>
+  </si>
+  <si>
+    <t>128,533,664</t>
+  </si>
+  <si>
+    <t>30 Jun 2022</t>
+  </si>
+  <si>
+    <t>National quarterly estimate[11]</t>
+  </si>
+  <si>
+    <t>125,104,000</t>
+  </si>
+  <si>
+    <t>1.56%</t>
+  </si>
+  <si>
+    <t>1 Jun 2022</t>
+  </si>
+  <si>
+    <t>Monthly estimate[12]</t>
+  </si>
+  <si>
+    <t>112,804,162</t>
+  </si>
+  <si>
+    <t>1.41%</t>
+  </si>
+  <si>
+    <t>National population clock[13]</t>
+  </si>
+  <si>
+    <t>105,163,988</t>
+  </si>
+  <si>
+    <t>1.31%</t>
+  </si>
+  <si>
+    <t>National annual projection[14]</t>
+  </si>
+  <si>
+    <t>104,182,902</t>
+  </si>
+  <si>
+    <t>National population clock[15]</t>
+  </si>
+  <si>
+    <t>99,010,000</t>
+  </si>
+  <si>
+    <t>1.24%</t>
+  </si>
+  <si>
+    <t>98,506,193</t>
+  </si>
+  <si>
+    <t>1 Jul 2021</t>
+  </si>
+  <si>
+    <t>Official estimate[16]</t>
+  </si>
+  <si>
+    <t>86,012,884</t>
+  </si>
+  <si>
+    <t>1.08%</t>
+  </si>
+  <si>
+    <t>84,680,273</t>
+  </si>
+  <si>
+    <t>Official estimate[18]</t>
+  </si>
+  <si>
+    <t>84,079,811</t>
+  </si>
+  <si>
+    <t>1.05%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> France</t>
+  </si>
+  <si>
+    <t>67,975,000</t>
+  </si>
+  <si>
+    <t>1 Nov 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> United Kingdom</t>
+  </si>
+  <si>
+    <t>67,081,234</t>
+  </si>
+  <si>
+    <t>0.839%</t>
+  </si>
+  <si>
+    <t>Official estimate[22]</t>
+  </si>
+  <si>
+    <t>66,869,517</t>
+  </si>
+  <si>
+    <t>0.836%</t>
+  </si>
+  <si>
+    <t>National population clock[24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tanzania</t>
+  </si>
+  <si>
+    <t>61,280,743</t>
+  </si>
+  <si>
+    <t>0.766%</t>
+  </si>
+  <si>
+    <t>Official projection[25]</t>
+  </si>
+  <si>
+    <t>60,604,992</t>
+  </si>
+  <si>
+    <t>0.758%</t>
+  </si>
+  <si>
+    <t>Official estimate[26]</t>
+  </si>
+  <si>
+    <t>58,853,482</t>
+  </si>
+  <si>
+    <t>31 Jul 2022</t>
+  </si>
+  <si>
+    <t>55,294,979</t>
+  </si>
+  <si>
+    <t>0.691%</t>
+  </si>
+  <si>
+    <t>51,638,809</t>
+  </si>
+  <si>
+    <t>0.646%</t>
+  </si>
+  <si>
+    <t>Official estimate[29]</t>
+  </si>
+  <si>
+    <t>51,049,498</t>
+  </si>
+  <si>
+    <t>0.638%</t>
+  </si>
+  <si>
+    <t>30 Jun 2021</t>
+  </si>
+  <si>
+    <t>Official projection[30]</t>
+  </si>
+  <si>
+    <t>0.595%</t>
+  </si>
+  <si>
+    <t>2019 census result[31]</t>
+  </si>
+  <si>
+    <t>47,615,034</t>
+  </si>
+  <si>
+    <t>Official estimate[32]</t>
+  </si>
+  <si>
+    <t>47,327,407</t>
+  </si>
+  <si>
+    <t>0.592%</t>
+  </si>
+  <si>
+    <t>18 May 2022</t>
+  </si>
+  <si>
+    <t>2022 census preliminary result[33]</t>
+  </si>
+  <si>
+    <t>45,400,000</t>
+  </si>
+  <si>
+    <t>0.568%</t>
+  </si>
+  <si>
+    <t>1 Jan 2022</t>
+  </si>
+  <si>
+    <t>Official estimate[34]</t>
+  </si>
+  <si>
+    <t>44,983,345</t>
+  </si>
+  <si>
+    <t>0.562%</t>
+  </si>
+  <si>
+    <t>National population clock[35]</t>
+  </si>
+  <si>
+    <t>42,885,900</t>
+  </si>
+  <si>
+    <t>0.536%</t>
+  </si>
+  <si>
+    <t>Official projection[36]</t>
+  </si>
+  <si>
+    <t>41,190,700</t>
+  </si>
+  <si>
+    <t>0.515%</t>
+  </si>
+  <si>
+    <t>Official estimate[37]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ukraine</t>
+  </si>
+  <si>
+    <t>41,130,432</t>
+  </si>
+  <si>
+    <t>0.514%</t>
+  </si>
+  <si>
+    <t>1 Feb 2022</t>
+  </si>
+  <si>
+    <t>National monthly estimate[38]</t>
+  </si>
+  <si>
+    <t>39,039,813</t>
+  </si>
+  <si>
+    <t>0.488%</t>
+  </si>
+  <si>
+    <t>37,979,000</t>
+  </si>
+  <si>
+    <t>0.475%</t>
+  </si>
+  <si>
+    <t>30 Sep 2022</t>
+  </si>
+  <si>
+    <t>National monthly estimate[40]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Morocco</t>
+  </si>
+  <si>
+    <t>36,804,610</t>
+  </si>
+  <si>
+    <t>0.460%</t>
+  </si>
+  <si>
+    <t>National population clock[41]</t>
+  </si>
+  <si>
+    <t>35,931,234</t>
+  </si>
+  <si>
+    <t>0.449%</t>
+  </si>
+  <si>
+    <t>National population clock[42]</t>
+  </si>
+  <si>
+    <t>35,013,414</t>
+  </si>
+  <si>
+    <t>0.438%</t>
+  </si>
+  <si>
+    <t>Official estimate[43]</t>
+  </si>
+  <si>
+    <t>33,697,000</t>
+  </si>
+  <si>
+    <t>0.421%</t>
+  </si>
+  <si>
+    <t>33,396,698</t>
+  </si>
+  <si>
+    <t>33,086,278</t>
+  </si>
+  <si>
+    <t>0.414%</t>
+  </si>
+  <si>
+    <t>0.411%</t>
+  </si>
+  <si>
+    <t>Official estimate[46]</t>
+  </si>
+  <si>
+    <t>32,757,400</t>
+  </si>
+  <si>
+    <t>0.410%</t>
+  </si>
+  <si>
+    <t>National population clock[47]</t>
+  </si>
+  <si>
+    <t>31,616,078</t>
+  </si>
+  <si>
+    <t>30,832,019</t>
+  </si>
+  <si>
+    <t>0.386%</t>
+  </si>
+  <si>
+    <t>27 Jun 2021</t>
+  </si>
+  <si>
+    <t>2021 census results[49]</t>
+  </si>
+  <si>
+    <t>29,389,150</t>
+  </si>
+  <si>
+    <t>0.367%</t>
+  </si>
+  <si>
+    <t>14 Dec 2021</t>
+  </si>
+  <si>
+    <t>2021 census result[50]</t>
+  </si>
+  <si>
+    <t>29,192,480</t>
+  </si>
+  <si>
+    <t>0.365%</t>
+  </si>
+  <si>
+    <t>11 Nov 2021</t>
+  </si>
+  <si>
+    <t>2021 census result[51]</t>
+  </si>
+  <si>
+    <t>28,302,000</t>
+  </si>
+  <si>
+    <t>0.354%</t>
+  </si>
+  <si>
+    <t>26,923,353</t>
+  </si>
+  <si>
+    <t>0.337%</t>
+  </si>
+  <si>
+    <t>26,013,681</t>
+  </si>
+  <si>
+    <t>0.325%</t>
+  </si>
+  <si>
+    <t>National population clock[53]</t>
+  </si>
+  <si>
+    <t>25,660,000</t>
+  </si>
+  <si>
+    <t>0.321%</t>
+  </si>
+  <si>
+    <t>National annual projection[54]</t>
+  </si>
+  <si>
+    <t>0.304%</t>
+  </si>
+  <si>
+    <t>24,112,753</t>
+  </si>
+  <si>
+    <t>National annual projection[56]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taiwan</t>
+  </si>
+  <si>
+    <t>23,375,314</t>
+  </si>
+  <si>
+    <t>0.292%</t>
+  </si>
+  <si>
+    <t>Official estimate[57]</t>
+  </si>
+  <si>
+    <t>22,594,000</t>
+  </si>
+  <si>
+    <t>0.283%</t>
+  </si>
+  <si>
+    <t>22,156,000</t>
+  </si>
+  <si>
+    <t>0.277%</t>
+  </si>
+  <si>
+    <t>Official estimate[58]</t>
+  </si>
+  <si>
+    <t>22,125,000</t>
+  </si>
+  <si>
+    <t>0.269%</t>
+  </si>
+  <si>
+    <t>21,507,723</t>
+  </si>
+  <si>
+    <t>National annual projection[60]</t>
+  </si>
+  <si>
+    <t>19,828,563</t>
+  </si>
+  <si>
+    <t>0.248%</t>
+  </si>
+  <si>
+    <t>National annual projection[61]</t>
+  </si>
+  <si>
+    <t>19,367,344</t>
+  </si>
+  <si>
+    <t>0.242%</t>
+  </si>
+  <si>
+    <t>National population clock[62]</t>
+  </si>
+  <si>
+    <t>19,038,098</t>
+  </si>
+  <si>
+    <t>0.238%</t>
+  </si>
+  <si>
+    <t>Official estimate[63]</t>
+  </si>
+  <si>
+    <t>18,400,556</t>
+  </si>
+  <si>
+    <t>0.230%</t>
+  </si>
+  <si>
+    <t>National annual projection[64]</t>
+  </si>
+  <si>
+    <t>18,121,232</t>
+  </si>
+  <si>
+    <t>0.227%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Netherlands</t>
+  </si>
+  <si>
+    <t>17,773,260</t>
+  </si>
+  <si>
+    <t>0.222%</t>
+  </si>
+  <si>
+    <t>National population clock[66]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Somalia</t>
+  </si>
+  <si>
+    <t>17,598,000</t>
+  </si>
+  <si>
+    <t>0.220%</t>
+  </si>
+  <si>
+    <t>17,223,497</t>
+  </si>
+  <si>
+    <t>17,109,746</t>
+  </si>
+  <si>
+    <t>0.214%</t>
+  </si>
+  <si>
+    <t>16,818,391</t>
+  </si>
+  <si>
+    <t>0.210%</t>
+  </si>
+  <si>
+    <t>15,552,211</t>
+  </si>
+  <si>
+    <t>0.194%</t>
+  </si>
+  <si>
+    <t>2019 census result[70]</t>
+  </si>
+  <si>
+    <t>15,178,979</t>
+  </si>
+  <si>
+    <t>0.190%</t>
+  </si>
+  <si>
+    <t>20 Apr 2022</t>
+  </si>
+  <si>
+    <t>2022 preliminary census result[71]</t>
+  </si>
+  <si>
+    <t>0.166%</t>
+  </si>
+  <si>
+    <t>12,955,768</t>
+  </si>
+  <si>
+    <t>12,907,395</t>
+  </si>
+  <si>
+    <t>0.161%</t>
+  </si>
+  <si>
+    <t>12,574,571</t>
+  </si>
+  <si>
+    <t>12,506,347</t>
+  </si>
+  <si>
+    <t>0.156%</t>
+  </si>
+  <si>
+    <t>12,006,031</t>
+  </si>
+  <si>
+    <t>National annual projection[77]</t>
+  </si>
+  <si>
+    <t>11,803,588</t>
+  </si>
+  <si>
+    <t>0.148%</t>
+  </si>
+  <si>
+    <t>National semi-annual estimate[78]</t>
+  </si>
+  <si>
+    <t>National annual projection[79]</t>
+  </si>
+  <si>
+    <t>11,671,737</t>
+  </si>
+  <si>
+    <t>0.146%</t>
+  </si>
+  <si>
+    <t>1 May 2022</t>
+  </si>
+  <si>
+    <t>Official estimate[80]</t>
+  </si>
+  <si>
+    <t>11,361,088</t>
+  </si>
+  <si>
+    <t>0.142%</t>
+  </si>
+  <si>
+    <t>11,113,215</t>
+  </si>
+  <si>
+    <t>0.139%</t>
+  </si>
+  <si>
+    <t>Official estimate[82]</t>
+  </si>
+  <si>
+    <t>10,535,535</t>
+  </si>
+  <si>
+    <t>National annual projection[83]</t>
+  </si>
+  <si>
+    <t>10,525,739</t>
+  </si>
+  <si>
+    <t>2022 estimate[84]</t>
+  </si>
+  <si>
+    <t>10,514,692</t>
+  </si>
+  <si>
+    <t>0.131%</t>
+  </si>
+  <si>
+    <t>31 Oct 2022</t>
+  </si>
+  <si>
+    <t>10,432,481</t>
+  </si>
+  <si>
+    <t>0.130%</t>
+  </si>
+  <si>
+    <t>23 Nov 2021</t>
+  </si>
+  <si>
+    <t>2021 census preliminary results[86]</t>
+  </si>
+  <si>
+    <t>10,344,802</t>
+  </si>
+  <si>
+    <t>19 Apr 2021</t>
+  </si>
+  <si>
+    <t>2021 census preliminary results[87]</t>
+  </si>
+  <si>
+    <t>10,204,774</t>
+  </si>
+  <si>
+    <t>0.128%</t>
+  </si>
+  <si>
+    <t>1 Oct 2022</t>
+  </si>
+  <si>
+    <t>Monthly national estimate[88]</t>
+  </si>
+  <si>
+    <t>9,689,000</t>
+  </si>
+  <si>
+    <t>0.121%</t>
+  </si>
+  <si>
+    <t>Official estimate[89]</t>
+  </si>
+  <si>
+    <t>9,617,660</t>
+  </si>
+  <si>
+    <t>National population clock[90]</t>
+  </si>
+  <si>
+    <t>9,546,178</t>
+  </si>
+  <si>
+    <t>National annual projection[91]</t>
+  </si>
+  <si>
+    <t>9,506,000</t>
+  </si>
+  <si>
+    <t>1 Jan 2021</t>
+  </si>
+  <si>
+    <t>Official estimate[92]</t>
+  </si>
+  <si>
+    <t>9,282,410</t>
+  </si>
+  <si>
+    <t>0.116%</t>
+  </si>
+  <si>
+    <t>31 Dec 2020</t>
+  </si>
+  <si>
+    <t>Official estimate[93]</t>
+  </si>
+  <si>
+    <t>9,255,524</t>
+  </si>
+  <si>
+    <t>Official estimate[94]</t>
+  </si>
+  <si>
+    <t>9,122,994</t>
+  </si>
+  <si>
+    <t>National annual projection[95]</t>
+  </si>
+  <si>
+    <t>9,090,868</t>
+  </si>
+  <si>
+    <t>8,789,726</t>
+  </si>
+  <si>
+    <t>National quarterly estimate[97]</t>
+  </si>
+  <si>
+    <t>8,494,260</t>
+  </si>
+  <si>
+    <t>0.106%</t>
+  </si>
+  <si>
+    <t>7,886,000</t>
+  </si>
+  <si>
+    <t>0.0986%</t>
+  </si>
+  <si>
+    <t>National annual projection[99]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hong Kong (China)</t>
+  </si>
+  <si>
+    <t>7,403,100</t>
+  </si>
+  <si>
+    <t>National semi-annual estimate[100]</t>
+  </si>
+  <si>
+    <t>7,353,038</t>
+  </si>
+  <si>
+    <t>0.0919%</t>
+  </si>
+  <si>
+    <t>7,337,783</t>
+  </si>
+  <si>
+    <t>0.0917%</t>
+  </si>
+  <si>
+    <t>National annual projection[102]</t>
+  </si>
+  <si>
+    <t>6,825,935</t>
+  </si>
+  <si>
+    <t>0.0853%</t>
+  </si>
+  <si>
+    <t>National annual projection[103]</t>
+  </si>
+  <si>
+    <t>6,812,000</t>
+  </si>
+  <si>
+    <t>0.0852%</t>
+  </si>
+  <si>
+    <t>6,800,000</t>
+  </si>
+  <si>
+    <t>0.0850%</t>
+  </si>
+  <si>
+    <t>Monthly national estimate[104]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serbia</t>
+  </si>
+  <si>
+    <t>6,797,105</t>
+  </si>
+  <si>
+    <t>Official estimate[105]</t>
+  </si>
+  <si>
+    <t>6,595,674</t>
+  </si>
+  <si>
+    <t>0.0825%</t>
+  </si>
+  <si>
+    <t>Official estimate[106]</t>
+  </si>
+  <si>
+    <t>6,520,314</t>
+  </si>
+  <si>
+    <t>0.0815%</t>
+  </si>
+  <si>
+    <t>7 Sep 2021</t>
+  </si>
+  <si>
+    <t>Official estimate[107]</t>
+  </si>
+  <si>
+    <t>6,431,000</t>
+  </si>
+  <si>
+    <t>0.0804%</t>
+  </si>
+  <si>
+    <t>5,970,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Denmark</t>
+  </si>
+  <si>
+    <t>5,928,364</t>
+  </si>
+  <si>
+    <t>0.0741%</t>
+  </si>
+  <si>
+    <t>National quarterly estimate[108]</t>
+  </si>
+  <si>
+    <t>0.0704%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finland</t>
+  </si>
+  <si>
+    <t>5,528,796</t>
+  </si>
+  <si>
+    <t>0.0691%</t>
+  </si>
+  <si>
+    <t>5,490,000</t>
+  </si>
+  <si>
+    <t>0.0686%</t>
+  </si>
+  <si>
+    <t>5,475,240</t>
+  </si>
+  <si>
+    <t>0.0685%</t>
+  </si>
+  <si>
+    <t>5,453,600</t>
+  </si>
+  <si>
+    <t>0.0682%</t>
+  </si>
+  <si>
+    <t>Official estimate[112]</t>
+  </si>
+  <si>
+    <t>5,431,235</t>
+  </si>
+  <si>
+    <t>0.0679%</t>
+  </si>
+  <si>
+    <t>National quarterly estimate[113]</t>
+  </si>
+  <si>
+    <t>5,227,193</t>
+  </si>
+  <si>
+    <t>0.0654%</t>
+  </si>
+  <si>
+    <t>5,163,038</t>
+  </si>
+  <si>
+    <t>0.0646%</t>
+  </si>
+  <si>
+    <t>National annual projection[115]</t>
+  </si>
+  <si>
+    <t>5,134,823</t>
+  </si>
+  <si>
+    <t>0.0642%</t>
+  </si>
+  <si>
+    <t>National population clock[116]</t>
+  </si>
+  <si>
+    <t>5,123,536</t>
+  </si>
+  <si>
+    <t>0.0641%</t>
+  </si>
+  <si>
+    <t>3 Apr 2022</t>
+  </si>
+  <si>
+    <t>2022 census preliminary results[117]</t>
+  </si>
+  <si>
+    <t>4,670,713</t>
+  </si>
+  <si>
+    <t>Official estimate[118]</t>
+  </si>
+  <si>
+    <t>4,661,010</t>
+  </si>
+  <si>
+    <t>0.0583%</t>
+  </si>
+  <si>
+    <t>National annual projection[119]</t>
+  </si>
+  <si>
+    <t>4,527,446</t>
+  </si>
+  <si>
+    <t>0.0566%</t>
+  </si>
+  <si>
+    <t>Monthly national estimate[120]</t>
+  </si>
+  <si>
+    <t>0.0535%</t>
+  </si>
+  <si>
+    <t>4,271,197</t>
+  </si>
+  <si>
+    <t>0.0534%</t>
+  </si>
+  <si>
+    <t>National annual projection[122]</t>
+  </si>
+  <si>
+    <t>3,871,833</t>
+  </si>
+  <si>
+    <t>0.0484%</t>
+  </si>
+  <si>
+    <t>31 Aug 2021</t>
+  </si>
+  <si>
+    <t>2021 census[123]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Georgia</t>
+  </si>
+  <si>
+    <t>3,688,600</t>
+  </si>
+  <si>
+    <t>0.0461%</t>
+  </si>
+  <si>
+    <t>Official estimate[124]</t>
+  </si>
+  <si>
+    <t>3,684,000</t>
+  </si>
+  <si>
+    <t>3,554,915</t>
+  </si>
+  <si>
+    <t>0.0444%</t>
+  </si>
+  <si>
+    <t>National annual projection[125]</t>
+  </si>
+  <si>
+    <t>3,471,704</t>
+  </si>
+  <si>
+    <t>0.0434%</t>
+  </si>
+  <si>
+    <t>National population clock[126]</t>
+  </si>
+  <si>
+    <t>3,320,954</t>
+  </si>
+  <si>
+    <t>0.0415%</t>
+  </si>
+  <si>
+    <t>Official estimate[127][128]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Puerto Rico (United States)</t>
+  </si>
+  <si>
+    <t>3,285,874</t>
+  </si>
+  <si>
+    <t>0.0411%</t>
+  </si>
+  <si>
+    <t>2020 census result[129]</t>
+  </si>
+  <si>
+    <t>2,963,900</t>
+  </si>
+  <si>
+    <t>0.0371%</t>
+  </si>
+  <si>
+    <t>31 Mar 2021</t>
+  </si>
+  <si>
+    <t>National quarterly estimate[130]</t>
+  </si>
+  <si>
+    <t>2,839,020</t>
+  </si>
+  <si>
+    <t>0.0355%</t>
+  </si>
+  <si>
+    <t>2,829,741</t>
+  </si>
+  <si>
+    <t>0.0354%</t>
+  </si>
+  <si>
+    <t>Official estimate[132]</t>
+  </si>
+  <si>
+    <t>2,799,202</t>
+  </si>
+  <si>
+    <t>0.0350%</t>
+  </si>
+  <si>
+    <t>31 Jul 2019</t>
+  </si>
+  <si>
+    <t>Official estimate[133]</t>
+  </si>
+  <si>
+    <t>0.0342%</t>
+  </si>
+  <si>
+    <t>National semi-annual estimate[134]</t>
+  </si>
+  <si>
+    <t>2,706,000</t>
+  </si>
+  <si>
+    <t>0.0338%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moldova</t>
+  </si>
+  <si>
+    <t>2,597,100</t>
+  </si>
+  <si>
+    <t>0.0325%</t>
+  </si>
+  <si>
+    <t>Official estimate[135]</t>
+  </si>
+  <si>
+    <t>2,550,226</t>
+  </si>
+  <si>
+    <t>0.0319%</t>
+  </si>
+  <si>
+    <t>2,410,338</t>
+  </si>
+  <si>
+    <t>0.0301%</t>
+  </si>
+  <si>
+    <t>National annual projection[137]</t>
+  </si>
+  <si>
+    <t>2,306,000</t>
+  </si>
+  <si>
+    <t>0.0288%</t>
+  </si>
+  <si>
+    <t>2,233,272</t>
+  </si>
+  <si>
+    <t>0.0279%</t>
+  </si>
+  <si>
+    <t>2,108,977</t>
+  </si>
+  <si>
+    <t>0.0264%</t>
+  </si>
+  <si>
+    <t>2021 census result[139]</t>
+  </si>
+  <si>
+    <t>1,895,400</t>
+  </si>
+  <si>
+    <t>0.0237%</t>
+  </si>
+  <si>
+    <t>Monthly national estimate[140]</t>
+  </si>
+  <si>
+    <t>1,832,696</t>
+  </si>
+  <si>
+    <t>0.0229%</t>
+  </si>
+  <si>
+    <t>1 Nov 2021</t>
+  </si>
+  <si>
+    <t>2021 census result[141]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kosovo</t>
+  </si>
+  <si>
+    <t>1,798,188</t>
+  </si>
+  <si>
+    <t>0.0225%</t>
+  </si>
+  <si>
+    <t>Official estimate[142]</t>
+  </si>
+  <si>
+    <t>1,646,077</t>
+  </si>
+  <si>
+    <t>0.0206%</t>
+  </si>
+  <si>
+    <t>National annual projection[143]</t>
+  </si>
+  <si>
+    <t>1,505,588</t>
+  </si>
+  <si>
+    <t>0.0188%</t>
+  </si>
+  <si>
+    <t>Official estimate[144]</t>
+  </si>
+  <si>
+    <t>1,501,635</t>
+  </si>
+  <si>
+    <t>17 Mar 2020</t>
+  </si>
+  <si>
+    <t>2020 census result[145]</t>
+  </si>
+  <si>
+    <t>1,367,558</t>
+  </si>
+  <si>
+    <t>0.0171%</t>
+  </si>
+  <si>
+    <t>Official estimate[146]</t>
+  </si>
+  <si>
+    <t>1,331,796</t>
+  </si>
+  <si>
+    <t>0.0167%</t>
+  </si>
+  <si>
+    <t>Official estimate[147]</t>
+  </si>
+  <si>
+    <t>1,317,780</t>
+  </si>
+  <si>
+    <t>0.0165%</t>
+  </si>
+  <si>
+    <t>National annual projection[148]</t>
+  </si>
+  <si>
+    <t>1,266,334</t>
+  </si>
+  <si>
+    <t>0.0158%</t>
+  </si>
+  <si>
+    <t>National semi-annual estimate[149]</t>
+  </si>
+  <si>
+    <t>1,202,000</t>
+  </si>
+  <si>
+    <t>0.0150%</t>
+  </si>
+  <si>
+    <t>976,107</t>
+  </si>
+  <si>
+    <t>0.0122%</t>
+  </si>
+  <si>
+    <t>National annual projection[150]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cyprus</t>
+  </si>
+  <si>
+    <t>918,100</t>
+  </si>
+  <si>
+    <t>0.0115%</t>
+  </si>
+  <si>
+    <t>1 Oct 2021</t>
+  </si>
+  <si>
+    <t>2021 census preliminary results[151]</t>
+  </si>
+  <si>
+    <t>898,402</t>
+  </si>
+  <si>
+    <t>763,200</t>
+  </si>
+  <si>
+    <t>0.00954%</t>
+  </si>
+  <si>
+    <t>30 May 2022</t>
+  </si>
+  <si>
+    <t>0.00948%</t>
+  </si>
+  <si>
+    <t>2017 census result[153]</t>
+  </si>
+  <si>
+    <t>743,699</t>
+  </si>
+  <si>
+    <t>0.00930%</t>
+  </si>
+  <si>
+    <t>Official estimate[154]</t>
+  </si>
+  <si>
+    <t>728,041</t>
+  </si>
+  <si>
+    <t>0.00910%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Macau (China)</t>
+  </si>
+  <si>
+    <t>683,200</t>
+  </si>
+  <si>
+    <t>0.00854%</t>
+  </si>
+  <si>
+    <t>National quarterly estimate[155]</t>
+  </si>
+  <si>
+    <t>645,397</t>
+  </si>
+  <si>
+    <t>0.00807%</t>
+  </si>
+  <si>
+    <t>Official estimate[156]</t>
+  </si>
+  <si>
+    <t>621,306</t>
+  </si>
+  <si>
+    <t>0.00777%</t>
+  </si>
+  <si>
+    <t>National semi-annual estimate[157]</t>
+  </si>
+  <si>
+    <t>598,000</t>
+  </si>
+  <si>
+    <t>0.00748%</t>
+  </si>
+  <si>
+    <t>Official estimate[158]</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>576,000</t>
+  </si>
+  <si>
+    <t>0.00720%</t>
+  </si>
+  <si>
+    <t>563,198</t>
+  </si>
+  <si>
+    <t>0.00704%</t>
+  </si>
+  <si>
+    <t>National annual projection[159]</t>
+  </si>
+  <si>
+    <t>519,562</t>
+  </si>
+  <si>
+    <t>0.00650%</t>
+  </si>
+  <si>
+    <t>21 Nov 2021</t>
+  </si>
+  <si>
+    <t>Census 2021[160]</t>
+  </si>
+  <si>
+    <t>430,191</t>
+  </si>
+  <si>
+    <t>0.00538%</t>
+  </si>
+  <si>
+    <t>Official estimate[161]</t>
+  </si>
+  <si>
+    <t>429,999</t>
+  </si>
+  <si>
+    <t>Official estimate[162]</t>
+  </si>
+  <si>
+    <t>393,450</t>
+  </si>
+  <si>
+    <t>0.00492%</t>
+  </si>
+  <si>
+    <t>385,230</t>
+  </si>
+  <si>
+    <t>0.00482%</t>
+  </si>
+  <si>
+    <t>National quarterly estimate[164]</t>
+  </si>
+  <si>
+    <t>0.00479%</t>
+  </si>
+  <si>
+    <t>Official estimate[165]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Northern Cyprus</t>
+  </si>
+  <si>
+    <t>382,836</t>
+  </si>
+  <si>
+    <t>Official estimate[166]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transnistria</t>
+  </si>
+  <si>
+    <t>306,000</t>
+  </si>
+  <si>
+    <t>0.00383%</t>
+  </si>
+  <si>
+    <t>2021 estimate[167]</t>
+  </si>
+  <si>
+    <t>301,295</t>
+  </si>
+  <si>
+    <t>0.00377%</t>
+  </si>
+  <si>
+    <t>282,000</t>
+  </si>
+  <si>
+    <t>0.00353%</t>
+  </si>
+  <si>
+    <t>279,890</t>
+  </si>
+  <si>
+    <t>0.00350%</t>
+  </si>
+  <si>
+    <t>273,674</t>
+  </si>
+  <si>
+    <t>0.00342%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abkhazia</t>
+  </si>
+  <si>
+    <t>0.00307%</t>
+  </si>
+  <si>
+    <t>Official estimate[168]</t>
+  </si>
+  <si>
+    <t>214,610</t>
+  </si>
+  <si>
+    <t>0.00268%</t>
+  </si>
+  <si>
+    <t>National annual projection[169]</t>
+  </si>
+  <si>
+    <t>199,853</t>
+  </si>
+  <si>
+    <t>0.00250%</t>
+  </si>
+  <si>
+    <t>0.00223%</t>
+  </si>
+  <si>
+    <t>Official estimate[170]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guam (United States)</t>
+  </si>
+  <si>
+    <t>153,836</t>
+  </si>
+  <si>
+    <t>0.00192%</t>
+  </si>
+  <si>
+    <t>2020 census result[171]</t>
+  </si>
+  <si>
+    <t>153,671</t>
+  </si>
+  <si>
+    <t>Official estimate[172]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Artsakh</t>
+  </si>
+  <si>
+    <t>148,900</t>
+  </si>
+  <si>
+    <t>0.00186%</t>
+  </si>
+  <si>
+    <t>Official estimate[173]</t>
+  </si>
+  <si>
+    <t>125,000</t>
+  </si>
+  <si>
+    <t>0.00156%</t>
+  </si>
+  <si>
+    <t>120,740</t>
+  </si>
+  <si>
+    <t>0.00151%</t>
+  </si>
+  <si>
+    <t>111,050</t>
+  </si>
+  <si>
+    <t>0.00139%</t>
+  </si>
+  <si>
+    <t>National quarterly estimate[174]</t>
+  </si>
+  <si>
+    <t>Official estimate[175]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jersey (British Crown Dependency)</t>
+  </si>
+  <si>
+    <t>0.00135%</t>
+  </si>
+  <si>
+    <t>Official estimate[176]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Micronesia</t>
+  </si>
+  <si>
+    <t>105,754</t>
+  </si>
+  <si>
+    <t>0.00132%</t>
+  </si>
+  <si>
+    <t>100,772</t>
+  </si>
+  <si>
+    <t>100,447</t>
+  </si>
+  <si>
+    <t>22 Apr 2022</t>
+  </si>
+  <si>
+    <t>2022 Census[178]</t>
+  </si>
+  <si>
+    <t>100,179</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> U.S. Virgin Islands (United States)</t>
+  </si>
+  <si>
+    <t>87,146</t>
+  </si>
+  <si>
+    <t>0.00109%</t>
+  </si>
+  <si>
+    <t>2020 census result[180]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Isle of Man (British Crown Dependency)</t>
+  </si>
+  <si>
+    <t>84,069</t>
+  </si>
+  <si>
+    <t>0.00105%</t>
+  </si>
+  <si>
+    <t>30 May 2021</t>
+  </si>
+  <si>
+    <t>2021 Census results[181]</t>
+  </si>
+  <si>
+    <t>80,836</t>
+  </si>
+  <si>
+    <t>0.00101%</t>
+  </si>
+  <si>
+    <t>Official estimate[182]</t>
+  </si>
+  <si>
+    <t>73,000</t>
+  </si>
+  <si>
+    <t>0.000913%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cayman Islands (United Kingdom)</t>
+  </si>
+  <si>
+    <t>71,105</t>
+  </si>
+  <si>
+    <t>0.000889%</t>
+  </si>
+  <si>
+    <t>2021 Census[183]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bermuda (United Kingdom)</t>
+  </si>
+  <si>
+    <t>64,055</t>
+  </si>
+  <si>
+    <t>0.000801%</t>
+  </si>
+  <si>
+    <t>National annual projection[184]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guernsey (British Crown Dependency)</t>
+  </si>
+  <si>
+    <t>63,823</t>
+  </si>
+  <si>
+    <t>0.000798%</t>
+  </si>
+  <si>
+    <t>2021 Census[185]</t>
+  </si>
+  <si>
+    <t>56,619</t>
+  </si>
+  <si>
+    <t>0.000708%</t>
+  </si>
+  <si>
+    <t>National quarterly estimate[186]</t>
+  </si>
+  <si>
+    <t>54,111</t>
+  </si>
+  <si>
+    <t>0.000677%</t>
+  </si>
+  <si>
+    <t>Monthly national estimate[187]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Ossetia</t>
+  </si>
+  <si>
+    <t>0.000669%</t>
+  </si>
+  <si>
+    <t>2015 census result[188]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American Samoa (United States)</t>
+  </si>
+  <si>
+    <t>49,710</t>
+  </si>
+  <si>
+    <t>0.000622%</t>
+  </si>
+  <si>
+    <t>2020 census result[189]</t>
+  </si>
+  <si>
+    <t>48,000</t>
+  </si>
+  <si>
+    <t>0.000600%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Northern Mariana Islands (United States)</t>
+  </si>
+  <si>
+    <t>47,329</t>
+  </si>
+  <si>
+    <t>0.000592%</t>
+  </si>
+  <si>
+    <t>2020 census result[190]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Turks and Caicos Islands (United Kingdom)</t>
+  </si>
+  <si>
+    <t>44,542</t>
+  </si>
+  <si>
+    <t>0.000557%</t>
+  </si>
+  <si>
+    <t>Official estimate[191]</t>
+  </si>
+  <si>
+    <t>42,577</t>
+  </si>
+  <si>
+    <t>0.000532%</t>
+  </si>
+  <si>
+    <t>Official estimate[192]</t>
+  </si>
+  <si>
+    <t>39,308</t>
+  </si>
+  <si>
+    <t>0.000491%</t>
+  </si>
+  <si>
+    <t>National semi-annual estimate[193]</t>
+  </si>
+  <si>
+    <t>39,262</t>
+  </si>
+  <si>
+    <t>2021 Census[194]</t>
+  </si>
+  <si>
+    <t>39,150</t>
+  </si>
+  <si>
+    <t>0.000490%</t>
+  </si>
+  <si>
+    <t>Official estimate[195]</t>
+  </si>
+  <si>
+    <t>33,785</t>
+  </si>
+  <si>
+    <t>0.000422%</t>
+  </si>
+  <si>
+    <t>31 Aug 2022</t>
+  </si>
+  <si>
+    <t>Monthly national estimate[196]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gibraltar (United Kingdom)</t>
+  </si>
+  <si>
+    <t>33,000</t>
+  </si>
+  <si>
+    <t>0.000413%</t>
+  </si>
+  <si>
+    <t>Saint Martin (France)</t>
+  </si>
+  <si>
+    <t>32,489</t>
+  </si>
+  <si>
+    <t>0.000406%</t>
+  </si>
+  <si>
+    <t>Official estimate[197]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British Virgin Islands (United Kingdom)</t>
+  </si>
+  <si>
+    <t>31,000</t>
+  </si>
+  <si>
+    <t>0.000388%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åland (Finland)</t>
+  </si>
+  <si>
+    <t>30,402</t>
+  </si>
+  <si>
+    <t>0.000380%</t>
+  </si>
+  <si>
+    <t>16,733</t>
+  </si>
+  <si>
+    <t>0.000209%</t>
+  </si>
+  <si>
+    <t>2021 Census[198]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anguilla (United Kingdom)</t>
+  </si>
+  <si>
+    <t>15,701</t>
+  </si>
+  <si>
+    <t>0.000196%</t>
+  </si>
+  <si>
+    <t>Official Annual figure[199]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cook Islands (New Zealand)</t>
+  </si>
+  <si>
+    <t>15,040</t>
+  </si>
+  <si>
+    <t>0.000188%</t>
+  </si>
+  <si>
+    <t>2021 Census[200]</t>
+  </si>
+  <si>
+    <t>11,832</t>
+  </si>
+  <si>
+    <t>11,369</t>
+  </si>
+  <si>
+    <t>0.000142%</t>
+  </si>
+  <si>
+    <t>10,679</t>
+  </si>
+  <si>
+    <t>10,289</t>
+  </si>
+  <si>
+    <t>0.000129%</t>
+  </si>
+  <si>
+    <t>Official estimate[201]</t>
+  </si>
+  <si>
+    <t>5,974</t>
+  </si>
+  <si>
+    <t>Official estimate[202]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Saint Helena, Ascension and Tristan da Cunha (United Kingdom)</t>
+  </si>
+  <si>
+    <t>5,651</t>
+  </si>
+  <si>
+    <t>2021 Census[203][204][205]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montserrat (United Kingdom)</t>
+  </si>
+  <si>
+    <t>4,400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Falkland Islands (United Kingdom)</t>
+  </si>
+  <si>
+    <t>3,800</t>
+  </si>
+  <si>
+    <t>2,188</t>
+  </si>
+  <si>
+    <t>2021 Census[206]</t>
+  </si>
+  <si>
+    <t>1,692</t>
+  </si>
+  <si>
+    <t>2021 Census [207]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tokelau (New Zealand)</t>
+  </si>
+  <si>
+    <t>1,647</t>
+  </si>
+  <si>
+    <t>2019 Census [208]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Niue (New Zealand)</t>
+  </si>
+  <si>
+    <t>1,549</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vatican City</t>
+  </si>
+  <si>
+    <t>Monthly national estimate[209]</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>2021 Census[210]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pitcairn Islands (United Kingdom)</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Official estimate[211]</t>
   </si>
 </sst>
 </file>
@@ -2919,7 +4938,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E242"/>
+  <dimension ref="A1:E243"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2944,104 +4963,104 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>954</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>955</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>956</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>957</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>959</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>960</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>961</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>962</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>963</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>964</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>965</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>966</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>967</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>968</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>969</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>970</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>971</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>972</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>974</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>977</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>978</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>979</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>976</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8">
@@ -3049,30 +5068,30 @@
         <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>982</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>983</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>981</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>984</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>985</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>958</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -3080,444 +5099,444 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>986</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>987</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>988</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>990</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>991</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>992</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>993</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>995</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>996</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>997</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>998</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>999</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>1002</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>1003</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>958</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>1005</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>1006</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>976</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>1008</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>958</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>1010</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>1011</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>976</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>981</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>1012</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>1013</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>1015</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>1016</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>958</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>1017</v>
       </c>
       <c r="C20" t="s">
         <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>962</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>1019</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>1020</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>996</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>1022</v>
       </c>
       <c r="C22" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>92</v>
+        <v>1023</v>
       </c>
       <c r="E22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>1024</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>1025</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>1026</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>1028</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>1029</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>958</v>
       </c>
       <c r="E24" t="s">
-        <v>101</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>1031</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>1032</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>1033</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>107</v>
+        <v>1035</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>1036</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E26" t="s">
-        <v>109</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>1038</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>1039</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>1040</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>1041</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>1013</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>1042</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>1043</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>962</v>
       </c>
       <c r="E29" t="s">
-        <v>122</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>1045</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>1046</v>
       </c>
       <c r="D30" t="s">
-        <v>126</v>
+        <v>1047</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>1049</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B32" t="s">
-        <v>133</v>
+        <v>1051</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>1049</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>1053</v>
       </c>
       <c r="C33" t="s">
-        <v>138</v>
+        <v>1054</v>
       </c>
       <c r="D33" t="s">
-        <v>41</v>
+        <v>1055</v>
       </c>
       <c r="E33" t="s">
-        <v>139</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>1057</v>
       </c>
       <c r="C34" t="s">
-        <v>142</v>
+        <v>1058</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>1059</v>
       </c>
       <c r="E34" t="s">
-        <v>143</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>1061</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>1062</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>958</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="36">
@@ -3525,16 +5544,16 @@
         <v>148</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>1064</v>
       </c>
       <c r="C36" t="s">
-        <v>150</v>
+        <v>1065</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="37">
@@ -3542,33 +5561,33 @@
         <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>153</v>
+        <v>1067</v>
       </c>
       <c r="C37" t="s">
-        <v>154</v>
+        <v>1068</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E37" t="s">
-        <v>155</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>1070</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>1071</v>
       </c>
       <c r="C38" t="s">
-        <v>158</v>
+        <v>1072</v>
       </c>
       <c r="D38" t="s">
-        <v>159</v>
+        <v>1073</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="39">
@@ -3576,101 +5595,101 @@
         <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>1075</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>1076</v>
       </c>
       <c r="D39" t="s">
-        <v>8</v>
+        <v>958</v>
       </c>
       <c r="E39" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>1077</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>1078</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>1079</v>
       </c>
       <c r="E40" t="s">
-        <v>168</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>1081</v>
       </c>
       <c r="B41" t="s">
-        <v>170</v>
+        <v>1082</v>
       </c>
       <c r="C41" t="s">
-        <v>171</v>
+        <v>1083</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>958</v>
       </c>
       <c r="E41" t="s">
-        <v>172</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>1085</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>1086</v>
       </c>
       <c r="D42" t="s">
-        <v>70</v>
+        <v>958</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>1088</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>1089</v>
       </c>
       <c r="D43" t="s">
         <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>180</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>1091</v>
       </c>
       <c r="C44" t="s">
-        <v>183</v>
+        <v>1092</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>976</v>
       </c>
       <c r="E44" t="s">
-        <v>184</v>
+        <v>981</v>
       </c>
     </row>
     <row r="45">
@@ -3678,13 +5697,13 @@
         <v>185</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>1093</v>
       </c>
       <c r="C45" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E45" t="s">
         <v>188</v>
@@ -3695,13 +5714,13 @@
         <v>189</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>1094</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>1095</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>996</v>
       </c>
       <c r="E46" t="s">
         <v>192</v>
@@ -3709,50 +5728,50 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
-        <v>195</v>
+        <v>1096</v>
       </c>
       <c r="D47" t="s">
         <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>1098</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>1099</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>958</v>
       </c>
       <c r="E48" t="s">
-        <v>200</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>202</v>
+        <v>1101</v>
       </c>
       <c r="C49" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E49" t="s">
         <v>204</v>
@@ -3760,138 +5779,138 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
-        <v>206</v>
+        <v>1102</v>
       </c>
       <c r="C50" t="s">
-        <v>207</v>
+        <v>1103</v>
       </c>
       <c r="D50" t="s">
-        <v>21</v>
+        <v>1104</v>
       </c>
       <c r="E50" t="s">
-        <v>26</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B51" t="s">
-        <v>209</v>
+        <v>1106</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>1107</v>
       </c>
       <c r="D51" t="s">
-        <v>21</v>
+        <v>1108</v>
       </c>
       <c r="E51" t="s">
-        <v>26</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B52" t="s">
-        <v>212</v>
+        <v>1110</v>
       </c>
       <c r="C52" t="s">
-        <v>213</v>
+        <v>1111</v>
       </c>
       <c r="D52" t="s">
-        <v>21</v>
+        <v>1112</v>
       </c>
       <c r="E52" t="s">
-        <v>214</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>1114</v>
       </c>
       <c r="C53" t="s">
-        <v>217</v>
+        <v>1115</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E53" t="s">
-        <v>218</v>
+        <v>981</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>1116</v>
       </c>
       <c r="C54" t="s">
-        <v>221</v>
+        <v>1117</v>
       </c>
       <c r="D54" t="s">
-        <v>8</v>
+        <v>1013</v>
       </c>
       <c r="E54" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>1118</v>
       </c>
       <c r="C55" t="s">
-        <v>225</v>
+        <v>1119</v>
       </c>
       <c r="D55" t="s">
-        <v>21</v>
+        <v>958</v>
       </c>
       <c r="E55" t="s">
-        <v>226</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B56" t="s">
-        <v>228</v>
+        <v>1121</v>
       </c>
       <c r="C56" t="s">
-        <v>229</v>
+        <v>1122</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>1013</v>
       </c>
       <c r="E56" t="s">
-        <v>230</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B57" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C57" t="s">
-        <v>233</v>
+        <v>1124</v>
       </c>
       <c r="D57" t="s">
-        <v>234</v>
+        <v>70</v>
       </c>
       <c r="E57" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58">
@@ -3899,285 +5918,285 @@
         <v>236</v>
       </c>
       <c r="B58" t="s">
-        <v>237</v>
+        <v>1125</v>
       </c>
       <c r="C58" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E58" t="s">
-        <v>239</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>240</v>
+        <v>1127</v>
       </c>
       <c r="B59" t="s">
-        <v>241</v>
+        <v>1128</v>
       </c>
       <c r="C59" t="s">
-        <v>242</v>
+        <v>1129</v>
       </c>
       <c r="D59" t="s">
-        <v>70</v>
+        <v>962</v>
       </c>
       <c r="E59" t="s">
-        <v>243</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s">
-        <v>245</v>
+        <v>1131</v>
       </c>
       <c r="C60" t="s">
-        <v>246</v>
+        <v>1132</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E60" t="s">
-        <v>247</v>
+        <v>981</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s">
-        <v>249</v>
+        <v>1133</v>
       </c>
       <c r="C61" t="s">
-        <v>250</v>
+        <v>1134</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E61" t="s">
-        <v>251</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="B62" t="s">
-        <v>253</v>
+        <v>1136</v>
       </c>
       <c r="C62" t="s">
-        <v>254</v>
+        <v>1134</v>
       </c>
       <c r="D62" t="s">
-        <v>83</v>
+        <v>1013</v>
       </c>
       <c r="E62" t="s">
-        <v>255</v>
+        <v>981</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B63" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C63" t="s">
-        <v>258</v>
+        <v>1137</v>
       </c>
       <c r="D63" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E63" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B64" t="s">
-        <v>261</v>
+        <v>1138</v>
       </c>
       <c r="C64" t="s">
-        <v>262</v>
+        <v>1137</v>
       </c>
       <c r="D64" t="s">
-        <v>8</v>
+        <v>976</v>
       </c>
       <c r="E64" t="s">
-        <v>263</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s">
-        <v>265</v>
+        <v>1140</v>
       </c>
       <c r="C65" t="s">
-        <v>266</v>
+        <v>1141</v>
       </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>996</v>
       </c>
       <c r="E65" t="s">
-        <v>267</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s">
-        <v>269</v>
+        <v>1143</v>
       </c>
       <c r="C66" t="s">
-        <v>270</v>
+        <v>1144</v>
       </c>
       <c r="D66" t="s">
-        <v>21</v>
+        <v>958</v>
       </c>
       <c r="E66" t="s">
-        <v>271</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s">
-        <v>273</v>
+        <v>1146</v>
       </c>
       <c r="C67" t="s">
-        <v>274</v>
+        <v>1147</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>1059</v>
       </c>
       <c r="E67" t="s">
-        <v>275</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B68" t="s">
-        <v>277</v>
+        <v>1149</v>
       </c>
       <c r="C68" t="s">
-        <v>278</v>
+        <v>1150</v>
       </c>
       <c r="D68" t="s">
-        <v>8</v>
+        <v>1013</v>
       </c>
       <c r="E68" t="s">
-        <v>279</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B69" t="s">
-        <v>281</v>
+        <v>1152</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>1153</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>958</v>
       </c>
       <c r="E69" t="s">
-        <v>26</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>1154</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>1155</v>
       </c>
       <c r="C70" t="s">
-        <v>284</v>
+        <v>1156</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>958</v>
       </c>
       <c r="E70" t="s">
-        <v>285</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>286</v>
+        <v>1158</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>1159</v>
       </c>
       <c r="C71" t="s">
-        <v>288</v>
+        <v>1160</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E71" t="s">
-        <v>289</v>
+        <v>981</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>1161</v>
       </c>
       <c r="C72" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B73" t="s">
-        <v>295</v>
+        <v>1162</v>
       </c>
       <c r="C73" t="s">
-        <v>296</v>
+        <v>1163</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E73" t="s">
-        <v>26</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B74" t="s">
-        <v>298</v>
+        <v>1164</v>
       </c>
       <c r="C74" t="s">
-        <v>299</v>
+        <v>1165</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E74" t="s">
         <v>300</v>
@@ -4188,44 +6207,44 @@
         <v>301</v>
       </c>
       <c r="B75" t="s">
-        <v>302</v>
+        <v>1166</v>
       </c>
       <c r="C75" t="s">
-        <v>303</v>
+        <v>1167</v>
       </c>
       <c r="D75" t="s">
         <v>304</v>
       </c>
       <c r="E75" t="s">
-        <v>305</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B76" t="s">
-        <v>307</v>
+        <v>1169</v>
       </c>
       <c r="C76" t="s">
-        <v>308</v>
+        <v>1170</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>1171</v>
       </c>
       <c r="E76" t="s">
-        <v>309</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B77" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C77" t="s">
-        <v>312</v>
+        <v>1173</v>
       </c>
       <c r="D77" t="s">
         <v>21</v>
@@ -4236,16 +6255,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B78" t="s">
-        <v>315</v>
+        <v>1174</v>
       </c>
       <c r="C78" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D78" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E78" t="s">
         <v>317</v>
@@ -4253,16 +6272,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B79" t="s">
-        <v>319</v>
+        <v>1175</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
+        <v>1176</v>
       </c>
       <c r="D79" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E79" t="s">
         <v>321</v>
@@ -4270,16 +6289,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B80" t="s">
-        <v>323</v>
+        <v>1177</v>
       </c>
       <c r="C80" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E80" t="s">
         <v>325</v>
@@ -4287,16 +6306,16 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B81" t="s">
-        <v>327</v>
+        <v>1178</v>
       </c>
       <c r="C81" t="s">
-        <v>328</v>
+        <v>1179</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E81" t="s">
         <v>329</v>
@@ -4304,70 +6323,70 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B82" t="s">
-        <v>331</v>
+        <v>1180</v>
       </c>
       <c r="C82" t="s">
         <v>328</v>
       </c>
       <c r="D82" t="s">
-        <v>41</v>
+        <v>976</v>
       </c>
       <c r="E82" t="s">
-        <v>332</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B83" t="s">
-        <v>334</v>
+        <v>1182</v>
       </c>
       <c r="C83" t="s">
-        <v>335</v>
+        <v>1183</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>1059</v>
       </c>
       <c r="E83" t="s">
-        <v>336</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B84" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C84" t="s">
         <v>339</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>340</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B85" t="s">
-        <v>342</v>
+        <v>1186</v>
       </c>
       <c r="C85" t="s">
-        <v>343</v>
+        <v>1187</v>
       </c>
       <c r="D85" t="s">
-        <v>79</v>
+        <v>1188</v>
       </c>
       <c r="E85" t="s">
-        <v>344</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="86">
@@ -4375,13 +6394,13 @@
         <v>345</v>
       </c>
       <c r="B86" t="s">
-        <v>346</v>
+        <v>1190</v>
       </c>
       <c r="C86" t="s">
-        <v>347</v>
+        <v>1191</v>
       </c>
       <c r="D86" t="s">
-        <v>8</v>
+        <v>958</v>
       </c>
       <c r="E86" t="s">
         <v>348</v>
@@ -4389,53 +6408,53 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B87" t="s">
-        <v>350</v>
+        <v>1192</v>
       </c>
       <c r="C87" t="s">
-        <v>351</v>
+        <v>1193</v>
       </c>
       <c r="D87" t="s">
-        <v>352</v>
+        <v>962</v>
       </c>
       <c r="E87" t="s">
-        <v>353</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B88" t="s">
-        <v>355</v>
+        <v>1195</v>
       </c>
       <c r="C88" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="D88" t="s">
-        <v>83</v>
+        <v>1013</v>
       </c>
       <c r="E88" t="s">
-        <v>356</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B89" t="s">
-        <v>358</v>
+        <v>1197</v>
       </c>
       <c r="C89" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>996</v>
       </c>
       <c r="E89" t="s">
-        <v>360</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="90">
@@ -4443,13 +6462,13 @@
         <v>361</v>
       </c>
       <c r="B90" t="s">
-        <v>362</v>
+        <v>1199</v>
       </c>
       <c r="C90" t="s">
-        <v>359</v>
+        <v>1200</v>
       </c>
       <c r="D90" t="s">
-        <v>363</v>
+        <v>1201</v>
       </c>
       <c r="E90" t="s">
         <v>364</v>
@@ -4457,186 +6476,186 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B91" t="s">
-        <v>366</v>
+        <v>1202</v>
       </c>
       <c r="C91" t="s">
-        <v>367</v>
+        <v>1203</v>
       </c>
       <c r="D91" t="s">
-        <v>79</v>
+        <v>1204</v>
       </c>
       <c r="E91" t="s">
-        <v>368</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B92" t="s">
-        <v>370</v>
+        <v>1206</v>
       </c>
       <c r="C92" t="s">
         <v>371</v>
       </c>
       <c r="D92" t="s">
-        <v>21</v>
+        <v>1207</v>
       </c>
       <c r="E92" t="s">
-        <v>372</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B93" t="s">
-        <v>374</v>
+        <v>1209</v>
       </c>
       <c r="C93" t="s">
-        <v>375</v>
+        <v>1210</v>
       </c>
       <c r="D93" t="s">
-        <v>41</v>
+        <v>1211</v>
       </c>
       <c r="E93" t="s">
-        <v>376</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B94" t="s">
-        <v>378</v>
+        <v>1213</v>
       </c>
       <c r="C94" t="s">
-        <v>379</v>
+        <v>1214</v>
       </c>
       <c r="D94" t="s">
-        <v>41</v>
+        <v>1059</v>
       </c>
       <c r="E94" t="s">
-        <v>380</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B95" t="s">
-        <v>382</v>
+        <v>1216</v>
       </c>
       <c r="C95" t="s">
         <v>379</v>
       </c>
       <c r="D95" t="s">
-        <v>383</v>
+        <v>958</v>
       </c>
       <c r="E95" t="s">
-        <v>384</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B96" t="s">
-        <v>386</v>
+        <v>1218</v>
       </c>
       <c r="C96" t="s">
         <v>387</v>
       </c>
       <c r="D96" t="s">
-        <v>41</v>
+        <v>1013</v>
       </c>
       <c r="E96" t="s">
-        <v>388</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B97" t="s">
-        <v>390</v>
+        <v>1220</v>
       </c>
       <c r="C97" t="s">
         <v>387</v>
       </c>
       <c r="D97" t="s">
-        <v>21</v>
+        <v>1221</v>
       </c>
       <c r="E97" t="s">
-        <v>391</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B98" t="s">
-        <v>393</v>
+        <v>1223</v>
       </c>
       <c r="C98" t="s">
-        <v>387</v>
+        <v>1224</v>
       </c>
       <c r="D98" t="s">
-        <v>8</v>
+        <v>1225</v>
       </c>
       <c r="E98" t="s">
-        <v>394</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B99" t="s">
-        <v>396</v>
+        <v>1227</v>
       </c>
       <c r="C99" t="s">
-        <v>397</v>
+        <v>1224</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>1059</v>
       </c>
       <c r="E99" t="s">
-        <v>398</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B100" t="s">
-        <v>400</v>
+        <v>1229</v>
       </c>
       <c r="C100" t="s">
         <v>397</v>
       </c>
       <c r="D100" t="s">
-        <v>50</v>
+        <v>1013</v>
       </c>
       <c r="E100" t="s">
-        <v>401</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B101" t="s">
-        <v>403</v>
+        <v>1231</v>
       </c>
       <c r="C101" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D101" t="s">
-        <v>83</v>
+        <v>1211</v>
       </c>
       <c r="E101" t="s">
         <v>405</v>
@@ -4644,33 +6663,33 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B102" t="s">
-        <v>407</v>
+        <v>1232</v>
       </c>
       <c r="C102" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="D102" t="s">
-        <v>21</v>
+        <v>1079</v>
       </c>
       <c r="E102" t="s">
-        <v>409</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B103" t="s">
-        <v>411</v>
+        <v>1234</v>
       </c>
       <c r="C103" t="s">
-        <v>412</v>
+        <v>1235</v>
       </c>
       <c r="D103" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E103" t="s">
         <v>413</v>
@@ -4678,50 +6697,50 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B104" t="s">
-        <v>415</v>
+        <v>1236</v>
       </c>
       <c r="C104" t="s">
-        <v>416</v>
+        <v>1237</v>
       </c>
       <c r="D104" t="s">
-        <v>83</v>
+        <v>1013</v>
       </c>
       <c r="E104" t="s">
-        <v>417</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>418</v>
+        <v>1239</v>
       </c>
       <c r="B105" t="s">
-        <v>419</v>
+        <v>1240</v>
       </c>
       <c r="C105" t="s">
         <v>420</v>
       </c>
       <c r="D105" t="s">
-        <v>21</v>
+        <v>962</v>
       </c>
       <c r="E105" t="s">
-        <v>421</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B106" t="s">
-        <v>423</v>
+        <v>1242</v>
       </c>
       <c r="C106" t="s">
-        <v>424</v>
+        <v>1243</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E106" t="s">
         <v>425</v>
@@ -4729,36 +6748,36 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B107" t="s">
-        <v>427</v>
+        <v>1244</v>
       </c>
       <c r="C107" t="s">
-        <v>428</v>
+        <v>1245</v>
       </c>
       <c r="D107" t="s">
-        <v>79</v>
+        <v>1013</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B108" t="s">
-        <v>431</v>
+        <v>1247</v>
       </c>
       <c r="C108" t="s">
-        <v>432</v>
+        <v>1248</v>
       </c>
       <c r="D108" t="s">
-        <v>41</v>
+        <v>1013</v>
       </c>
       <c r="E108" t="s">
-        <v>433</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="109">
@@ -4766,84 +6785,84 @@
         <v>434</v>
       </c>
       <c r="B109" t="s">
-        <v>435</v>
+        <v>1250</v>
       </c>
       <c r="C109" t="s">
-        <v>436</v>
+        <v>1251</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E109" t="s">
-        <v>26</v>
+        <v>981</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B110" t="s">
-        <v>438</v>
+        <v>1252</v>
       </c>
       <c r="C110" t="s">
-        <v>439</v>
+        <v>1253</v>
       </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>976</v>
       </c>
       <c r="E110" t="s">
-        <v>26</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>440</v>
+        <v>1255</v>
       </c>
       <c r="B111" t="s">
-        <v>441</v>
+        <v>1256</v>
       </c>
       <c r="C111" t="s">
-        <v>442</v>
+        <v>1253</v>
       </c>
       <c r="D111" t="s">
-        <v>21</v>
+        <v>1059</v>
       </c>
       <c r="E111" t="s">
-        <v>443</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B112" t="s">
-        <v>445</v>
+        <v>1258</v>
       </c>
       <c r="C112" t="s">
-        <v>446</v>
+        <v>1259</v>
       </c>
       <c r="D112" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="E112" t="s">
-        <v>447</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="B113" t="s">
-        <v>449</v>
+        <v>1261</v>
       </c>
       <c r="C113" t="s">
-        <v>450</v>
+        <v>1262</v>
       </c>
       <c r="D113" t="s">
-        <v>92</v>
+        <v>1263</v>
       </c>
       <c r="E113" t="s">
-        <v>451</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="114">
@@ -4851,50 +6870,50 @@
         <v>452</v>
       </c>
       <c r="B114" t="s">
-        <v>453</v>
+        <v>1265</v>
       </c>
       <c r="C114" t="s">
-        <v>454</v>
+        <v>1266</v>
       </c>
       <c r="D114" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E114" t="s">
-        <v>26</v>
+        <v>981</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B115" t="s">
-        <v>456</v>
+        <v>1267</v>
       </c>
       <c r="C115" t="s">
         <v>457</v>
       </c>
       <c r="D115" t="s">
-        <v>50</v>
+        <v>1013</v>
       </c>
       <c r="E115" t="s">
-        <v>458</v>
+        <v>981</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>459</v>
+        <v>1268</v>
       </c>
       <c r="B116" t="s">
-        <v>460</v>
+        <v>1269</v>
       </c>
       <c r="C116" t="s">
-        <v>461</v>
+        <v>1270</v>
       </c>
       <c r="D116" t="s">
-        <v>83</v>
+        <v>1211</v>
       </c>
       <c r="E116" t="s">
-        <v>462</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="117">
@@ -4905,7 +6924,7 @@
         <v>464</v>
       </c>
       <c r="C117" t="s">
-        <v>465</v>
+        <v>1272</v>
       </c>
       <c r="D117" t="s">
         <v>21</v>
@@ -4916,50 +6935,50 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>467</v>
+        <v>1273</v>
       </c>
       <c r="B118" t="s">
-        <v>468</v>
+        <v>1274</v>
       </c>
       <c r="C118" t="s">
-        <v>469</v>
+        <v>1275</v>
       </c>
       <c r="D118" t="s">
-        <v>21</v>
+        <v>1079</v>
       </c>
       <c r="E118" t="s">
-        <v>26</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>470</v>
+        <v>437</v>
       </c>
       <c r="B119" t="s">
-        <v>471</v>
+        <v>1276</v>
       </c>
       <c r="C119" t="s">
-        <v>472</v>
+        <v>1277</v>
       </c>
       <c r="D119" t="s">
-        <v>363</v>
+        <v>1013</v>
       </c>
       <c r="E119" t="s">
-        <v>473</v>
+        <v>981</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B120" t="s">
-        <v>475</v>
+        <v>1278</v>
       </c>
       <c r="C120" t="s">
-        <v>476</v>
+        <v>1279</v>
       </c>
       <c r="D120" t="s">
-        <v>83</v>
+        <v>1079</v>
       </c>
       <c r="E120" t="s">
         <v>477</v>
@@ -4967,36 +6986,36 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="B121" t="s">
-        <v>479</v>
+        <v>1280</v>
       </c>
       <c r="C121" t="s">
-        <v>480</v>
+        <v>1281</v>
       </c>
       <c r="D121" t="s">
-        <v>83</v>
+        <v>1047</v>
       </c>
       <c r="E121" t="s">
-        <v>481</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B122" t="s">
-        <v>483</v>
+        <v>1283</v>
       </c>
       <c r="C122" t="s">
-        <v>484</v>
+        <v>1284</v>
       </c>
       <c r="D122" t="s">
-        <v>83</v>
+        <v>996</v>
       </c>
       <c r="E122" t="s">
-        <v>485</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="123">
@@ -5004,13 +7023,13 @@
         <v>486</v>
       </c>
       <c r="B123" t="s">
-        <v>487</v>
+        <v>1286</v>
       </c>
       <c r="C123" t="s">
-        <v>488</v>
+        <v>1287</v>
       </c>
       <c r="D123" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E123" t="s">
         <v>489</v>
@@ -5018,53 +7037,53 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B124" t="s">
-        <v>491</v>
+        <v>1288</v>
       </c>
       <c r="C124" t="s">
-        <v>492</v>
+        <v>1289</v>
       </c>
       <c r="D124" t="s">
-        <v>8</v>
+        <v>1047</v>
       </c>
       <c r="E124" t="s">
-        <v>493</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B125" t="s">
-        <v>495</v>
+        <v>1291</v>
       </c>
       <c r="C125" t="s">
-        <v>496</v>
+        <v>1292</v>
       </c>
       <c r="D125" t="s">
-        <v>497</v>
+        <v>958</v>
       </c>
       <c r="E125" t="s">
-        <v>498</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B126" t="s">
-        <v>500</v>
+        <v>1294</v>
       </c>
       <c r="C126" t="s">
-        <v>501</v>
+        <v>1295</v>
       </c>
       <c r="D126" t="s">
-        <v>21</v>
+        <v>1296</v>
       </c>
       <c r="E126" t="s">
-        <v>502</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="127">
@@ -5072,61 +7091,61 @@
         <v>503</v>
       </c>
       <c r="B127" t="s">
-        <v>504</v>
+        <v>1298</v>
       </c>
       <c r="C127" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D127" t="s">
-        <v>41</v>
+        <v>1225</v>
       </c>
       <c r="E127" t="s">
-        <v>506</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B128" t="s">
-        <v>508</v>
+        <v>1300</v>
       </c>
       <c r="C128" t="s">
-        <v>509</v>
+        <v>1301</v>
       </c>
       <c r="D128" t="s">
-        <v>363</v>
+        <v>1013</v>
       </c>
       <c r="E128" t="s">
-        <v>510</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B129" t="s">
-        <v>512</v>
+        <v>1303</v>
       </c>
       <c r="C129" t="s">
-        <v>513</v>
+        <v>1304</v>
       </c>
       <c r="D129" t="s">
-        <v>21</v>
+        <v>962</v>
       </c>
       <c r="E129" t="s">
-        <v>514</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B130" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C130" t="s">
-        <v>517</v>
+        <v>1306</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
@@ -5137,155 +7156,155 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B131" t="s">
-        <v>520</v>
+        <v>1307</v>
       </c>
       <c r="C131" t="s">
-        <v>521</v>
+        <v>1308</v>
       </c>
       <c r="D131" t="s">
-        <v>79</v>
+        <v>1013</v>
       </c>
       <c r="E131" t="s">
-        <v>522</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B132" t="s">
-        <v>524</v>
+        <v>1310</v>
       </c>
       <c r="C132" t="s">
-        <v>525</v>
+        <v>1311</v>
       </c>
       <c r="D132" t="s">
-        <v>41</v>
+        <v>1312</v>
       </c>
       <c r="E132" t="s">
-        <v>526</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>527</v>
+        <v>1314</v>
       </c>
       <c r="B133" t="s">
-        <v>528</v>
+        <v>1315</v>
       </c>
       <c r="C133" t="s">
-        <v>529</v>
+        <v>1316</v>
       </c>
       <c r="D133" t="s">
-        <v>21</v>
+        <v>1059</v>
       </c>
       <c r="E133" t="s">
-        <v>26</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B134" t="s">
-        <v>531</v>
+        <v>1318</v>
       </c>
       <c r="C134" t="s">
-        <v>532</v>
+        <v>1316</v>
       </c>
       <c r="D134" t="s">
-        <v>83</v>
+        <v>1013</v>
       </c>
       <c r="E134" t="s">
-        <v>533</v>
+        <v>981</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B135" t="s">
-        <v>535</v>
+        <v>1319</v>
       </c>
       <c r="C135" t="s">
-        <v>536</v>
+        <v>1320</v>
       </c>
       <c r="D135" t="s">
-        <v>8</v>
+        <v>1047</v>
       </c>
       <c r="E135" t="s">
-        <v>537</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B136" t="s">
-        <v>539</v>
+        <v>1322</v>
       </c>
       <c r="C136" t="s">
-        <v>540</v>
+        <v>1323</v>
       </c>
       <c r="D136" t="s">
-        <v>70</v>
+        <v>958</v>
       </c>
       <c r="E136" t="s">
-        <v>541</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B137" t="s">
-        <v>543</v>
+        <v>1325</v>
       </c>
       <c r="C137" t="s">
-        <v>544</v>
+        <v>1326</v>
       </c>
       <c r="D137" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E137" t="s">
-        <v>545</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>546</v>
+        <v>1328</v>
       </c>
       <c r="B138" t="s">
-        <v>547</v>
+        <v>1329</v>
       </c>
       <c r="C138" t="s">
-        <v>548</v>
+        <v>1330</v>
       </c>
       <c r="D138" t="s">
-        <v>363</v>
+        <v>497</v>
       </c>
       <c r="E138" t="s">
-        <v>549</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B139" t="s">
-        <v>551</v>
+        <v>1332</v>
       </c>
       <c r="C139" t="s">
-        <v>552</v>
+        <v>1333</v>
       </c>
       <c r="D139" t="s">
-        <v>41</v>
+        <v>1334</v>
       </c>
       <c r="E139" t="s">
-        <v>553</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="140">
@@ -5293,13 +7312,13 @@
         <v>554</v>
       </c>
       <c r="B140" t="s">
-        <v>555</v>
+        <v>1336</v>
       </c>
       <c r="C140" t="s">
-        <v>556</v>
+        <v>1337</v>
       </c>
       <c r="D140" t="s">
-        <v>557</v>
+        <v>1023</v>
       </c>
       <c r="E140" t="s">
         <v>558</v>
@@ -5307,19 +7326,19 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B141" t="s">
-        <v>560</v>
+        <v>1338</v>
       </c>
       <c r="C141" t="s">
-        <v>561</v>
+        <v>1339</v>
       </c>
       <c r="D141" t="s">
-        <v>79</v>
+        <v>1221</v>
       </c>
       <c r="E141" t="s">
-        <v>562</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="142">
@@ -5327,152 +7346,152 @@
         <v>563</v>
       </c>
       <c r="B142" t="s">
-        <v>564</v>
+        <v>1341</v>
       </c>
       <c r="C142" t="s">
-        <v>565</v>
+        <v>1342</v>
       </c>
       <c r="D142" t="s">
-        <v>50</v>
+        <v>1343</v>
       </c>
       <c r="E142" t="s">
-        <v>566</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B143" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C143" t="s">
-        <v>569</v>
+        <v>1345</v>
       </c>
       <c r="D143" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="E143" t="s">
-        <v>570</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="B144" t="s">
-        <v>572</v>
+        <v>1347</v>
       </c>
       <c r="C144" t="s">
-        <v>573</v>
+        <v>1348</v>
       </c>
       <c r="D144" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E144" t="s">
-        <v>574</v>
+        <v>981</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>575</v>
+        <v>1349</v>
       </c>
       <c r="B145" t="s">
-        <v>576</v>
+        <v>1350</v>
       </c>
       <c r="C145" t="s">
-        <v>577</v>
+        <v>1351</v>
       </c>
       <c r="D145" t="s">
-        <v>21</v>
+        <v>1221</v>
       </c>
       <c r="E145" t="s">
-        <v>578</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B146" t="s">
-        <v>580</v>
+        <v>1353</v>
       </c>
       <c r="C146" t="s">
-        <v>581</v>
+        <v>1354</v>
       </c>
       <c r="D146" t="s">
-        <v>383</v>
+        <v>1013</v>
       </c>
       <c r="E146" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B147" t="s">
-        <v>584</v>
+        <v>1355</v>
       </c>
       <c r="C147" t="s">
-        <v>585</v>
+        <v>1356</v>
       </c>
       <c r="D147" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E147" t="s">
-        <v>586</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B148" t="s">
-        <v>588</v>
+        <v>1358</v>
       </c>
       <c r="C148" t="s">
-        <v>589</v>
+        <v>1359</v>
       </c>
       <c r="D148" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E148" t="s">
-        <v>590</v>
+        <v>981</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="B149" t="s">
-        <v>592</v>
+        <v>1360</v>
       </c>
       <c r="C149" t="s">
-        <v>593</v>
+        <v>1361</v>
       </c>
       <c r="D149" t="s">
-        <v>79</v>
+        <v>1013</v>
       </c>
       <c r="E149" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B150" t="s">
-        <v>596</v>
+        <v>1362</v>
       </c>
       <c r="C150" t="s">
-        <v>597</v>
+        <v>1363</v>
       </c>
       <c r="D150" t="s">
-        <v>598</v>
+        <v>1221</v>
       </c>
       <c r="E150" t="s">
-        <v>599</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="151">
@@ -5480,67 +7499,67 @@
         <v>600</v>
       </c>
       <c r="B151" t="s">
-        <v>601</v>
+        <v>1365</v>
       </c>
       <c r="C151" t="s">
-        <v>602</v>
+        <v>1366</v>
       </c>
       <c r="D151" t="s">
-        <v>50</v>
+        <v>1211</v>
       </c>
       <c r="E151" t="s">
-        <v>603</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B152" t="s">
-        <v>605</v>
+        <v>1368</v>
       </c>
       <c r="C152" t="s">
-        <v>606</v>
+        <v>1369</v>
       </c>
       <c r="D152" t="s">
-        <v>79</v>
+        <v>1370</v>
       </c>
       <c r="E152" t="s">
-        <v>607</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>608</v>
+        <v>1372</v>
       </c>
       <c r="B153" t="s">
-        <v>609</v>
+        <v>1373</v>
       </c>
       <c r="C153" t="s">
-        <v>610</v>
+        <v>1374</v>
       </c>
       <c r="D153" t="s">
-        <v>21</v>
+        <v>1225</v>
       </c>
       <c r="E153" t="s">
-        <v>611</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B154" t="s">
-        <v>613</v>
+        <v>1376</v>
       </c>
       <c r="C154" t="s">
-        <v>614</v>
+        <v>1377</v>
       </c>
       <c r="D154" t="s">
-        <v>383</v>
+        <v>1013</v>
       </c>
       <c r="E154" t="s">
-        <v>615</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="155">
@@ -5548,169 +7567,169 @@
         <v>616</v>
       </c>
       <c r="B155" t="s">
-        <v>617</v>
+        <v>1379</v>
       </c>
       <c r="C155" t="s">
-        <v>618</v>
+        <v>1380</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E155" t="s">
-        <v>619</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B156" t="s">
-        <v>621</v>
+        <v>1382</v>
       </c>
       <c r="C156" t="s">
-        <v>622</v>
+        <v>1380</v>
       </c>
       <c r="D156" t="s">
-        <v>83</v>
+        <v>1383</v>
       </c>
       <c r="E156" t="s">
-        <v>623</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B157" t="s">
-        <v>625</v>
+        <v>1385</v>
       </c>
       <c r="C157" t="s">
-        <v>626</v>
+        <v>1386</v>
       </c>
       <c r="D157" t="s">
-        <v>41</v>
+        <v>1047</v>
       </c>
       <c r="E157" t="s">
-        <v>627</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B158" t="s">
-        <v>629</v>
+        <v>1388</v>
       </c>
       <c r="C158" t="s">
-        <v>630</v>
+        <v>1389</v>
       </c>
       <c r="D158" t="s">
-        <v>21</v>
+        <v>1059</v>
       </c>
       <c r="E158" t="s">
-        <v>631</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B159" t="s">
-        <v>633</v>
+        <v>1391</v>
       </c>
       <c r="C159" t="s">
-        <v>634</v>
+        <v>1392</v>
       </c>
       <c r="D159" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E159" t="s">
-        <v>635</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B160" t="s">
-        <v>637</v>
+        <v>1394</v>
       </c>
       <c r="C160" t="s">
-        <v>638</v>
+        <v>1395</v>
       </c>
       <c r="D160" t="s">
-        <v>639</v>
+        <v>1047</v>
       </c>
       <c r="E160" t="s">
-        <v>640</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B161" t="s">
-        <v>642</v>
+        <v>1397</v>
       </c>
       <c r="C161" t="s">
-        <v>643</v>
+        <v>1398</v>
       </c>
       <c r="D161" t="s">
-        <v>383</v>
+        <v>1013</v>
       </c>
       <c r="E161" t="s">
-        <v>644</v>
+        <v>981</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B162" t="s">
-        <v>646</v>
+        <v>1399</v>
       </c>
       <c r="C162" t="s">
-        <v>647</v>
+        <v>1400</v>
       </c>
       <c r="D162" t="s">
         <v>70</v>
       </c>
       <c r="E162" t="s">
-        <v>648</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>649</v>
+        <v>1402</v>
       </c>
       <c r="B163" t="s">
-        <v>650</v>
+        <v>1403</v>
       </c>
       <c r="C163" t="s">
-        <v>651</v>
+        <v>1404</v>
       </c>
       <c r="D163" t="s">
-        <v>652</v>
+        <v>1405</v>
       </c>
       <c r="E163" t="s">
-        <v>653</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="B164" t="s">
-        <v>655</v>
+        <v>1407</v>
       </c>
       <c r="C164" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D164" t="s">
-        <v>657</v>
+        <v>1013</v>
       </c>
       <c r="E164" t="s">
-        <v>658</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="165">
@@ -5718,118 +7737,118 @@
         <v>659</v>
       </c>
       <c r="B165" t="s">
-        <v>660</v>
+        <v>1408</v>
       </c>
       <c r="C165" t="s">
-        <v>661</v>
+        <v>1409</v>
       </c>
       <c r="D165" t="s">
-        <v>21</v>
+        <v>1410</v>
       </c>
       <c r="E165" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="B166" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="C166" t="s">
-        <v>665</v>
+        <v>1411</v>
       </c>
       <c r="D166" t="s">
-        <v>383</v>
+        <v>657</v>
       </c>
       <c r="E166" t="s">
-        <v>666</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B167" t="s">
-        <v>668</v>
+        <v>1413</v>
       </c>
       <c r="C167" t="s">
-        <v>669</v>
+        <v>1414</v>
       </c>
       <c r="D167" t="s">
-        <v>670</v>
+        <v>70</v>
       </c>
       <c r="E167" t="s">
-        <v>671</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B168" t="s">
-        <v>673</v>
+        <v>1416</v>
       </c>
       <c r="C168" t="s">
-        <v>674</v>
+        <v>1417</v>
       </c>
       <c r="D168" t="s">
-        <v>363</v>
+        <v>1013</v>
       </c>
       <c r="E168" t="s">
-        <v>675</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>676</v>
+        <v>1418</v>
       </c>
       <c r="B169" t="s">
-        <v>677</v>
+        <v>1419</v>
       </c>
       <c r="C169" t="s">
-        <v>678</v>
+        <v>1420</v>
       </c>
       <c r="D169" t="s">
-        <v>41</v>
+        <v>962</v>
       </c>
       <c r="E169" t="s">
-        <v>679</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B170" t="s">
-        <v>681</v>
+        <v>1422</v>
       </c>
       <c r="C170" t="s">
-        <v>682</v>
+        <v>1423</v>
       </c>
       <c r="D170" t="s">
-        <v>41</v>
+        <v>1059</v>
       </c>
       <c r="E170" t="s">
-        <v>683</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B171" t="s">
-        <v>685</v>
+        <v>1425</v>
       </c>
       <c r="C171" t="s">
-        <v>686</v>
+        <v>1426</v>
       </c>
       <c r="D171" t="s">
         <v>21</v>
       </c>
       <c r="E171" t="s">
-        <v>26</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="172">
@@ -5837,101 +7856,101 @@
         <v>687</v>
       </c>
       <c r="B172" t="s">
-        <v>688</v>
+        <v>1428</v>
       </c>
       <c r="C172" t="s">
-        <v>689</v>
+        <v>1429</v>
       </c>
       <c r="D172" t="s">
-        <v>383</v>
+        <v>70</v>
       </c>
       <c r="E172" t="s">
-        <v>690</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>691</v>
+        <v>1431</v>
       </c>
       <c r="B173" t="s">
-        <v>692</v>
+        <v>1432</v>
       </c>
       <c r="C173" t="s">
-        <v>693</v>
+        <v>1433</v>
       </c>
       <c r="D173" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E173" t="s">
-        <v>694</v>
+        <v>981</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="B174" t="s">
-        <v>696</v>
+        <v>1434</v>
       </c>
       <c r="C174" t="s">
-        <v>697</v>
+        <v>1435</v>
       </c>
       <c r="D174" t="s">
-        <v>79</v>
+        <v>1013</v>
       </c>
       <c r="E174" t="s">
-        <v>698</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B175" t="s">
-        <v>700</v>
+        <v>1437</v>
       </c>
       <c r="C175" t="s">
-        <v>701</v>
+        <v>1438</v>
       </c>
       <c r="D175" t="s">
-        <v>702</v>
+        <v>1439</v>
       </c>
       <c r="E175" t="s">
-        <v>703</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B176" t="s">
-        <v>705</v>
+        <v>1441</v>
       </c>
       <c r="C176" t="s">
-        <v>706</v>
+        <v>1442</v>
       </c>
       <c r="D176" t="s">
-        <v>70</v>
+        <v>1013</v>
       </c>
       <c r="E176" t="s">
-        <v>707</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B177" t="s">
-        <v>709</v>
+        <v>1444</v>
       </c>
       <c r="C177" t="s">
-        <v>710</v>
+        <v>1442</v>
       </c>
       <c r="D177" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E177" t="s">
-        <v>711</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="178">
@@ -5939,271 +7958,271 @@
         <v>712</v>
       </c>
       <c r="B178" t="s">
-        <v>713</v>
+        <v>1446</v>
       </c>
       <c r="C178" t="s">
-        <v>714</v>
+        <v>1447</v>
       </c>
       <c r="D178" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E178" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B179" t="s">
-        <v>717</v>
+        <v>1448</v>
       </c>
       <c r="C179" t="s">
-        <v>718</v>
+        <v>1449</v>
       </c>
       <c r="D179" t="s">
-        <v>79</v>
+        <v>1079</v>
       </c>
       <c r="E179" t="s">
-        <v>719</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B180" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="C180" t="s">
-        <v>722</v>
+        <v>1451</v>
       </c>
       <c r="D180" t="s">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="E180" t="s">
-        <v>723</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>724</v>
+        <v>1453</v>
       </c>
       <c r="B181" t="s">
-        <v>725</v>
+        <v>1454</v>
       </c>
       <c r="C181" t="s">
-        <v>726</v>
+        <v>1451</v>
       </c>
       <c r="D181" t="s">
-        <v>727</v>
+        <v>1225</v>
       </c>
       <c r="E181" t="s">
-        <v>728</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>729</v>
+        <v>1456</v>
       </c>
       <c r="B182" t="s">
-        <v>730</v>
+        <v>1457</v>
       </c>
       <c r="C182" t="s">
-        <v>731</v>
+        <v>1458</v>
       </c>
       <c r="D182" t="s">
-        <v>383</v>
+        <v>702</v>
       </c>
       <c r="E182" t="s">
-        <v>732</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B183" t="s">
-        <v>734</v>
+        <v>1460</v>
       </c>
       <c r="C183" t="s">
-        <v>735</v>
+        <v>1461</v>
       </c>
       <c r="D183" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E183" t="s">
-        <v>26</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="B184" t="s">
-        <v>737</v>
+        <v>1462</v>
       </c>
       <c r="C184" t="s">
-        <v>738</v>
+        <v>1463</v>
       </c>
       <c r="D184" t="s">
-        <v>79</v>
+        <v>1013</v>
       </c>
       <c r="E184" t="s">
-        <v>739</v>
+        <v>981</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B185" t="s">
-        <v>741</v>
+        <v>1464</v>
       </c>
       <c r="C185" t="s">
-        <v>742</v>
+        <v>1465</v>
       </c>
       <c r="D185" t="s">
-        <v>743</v>
+        <v>1013</v>
       </c>
       <c r="E185" t="s">
-        <v>744</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B186" t="s">
-        <v>746</v>
+        <v>1466</v>
       </c>
       <c r="C186" t="s">
-        <v>747</v>
+        <v>1467</v>
       </c>
       <c r="D186" t="s">
-        <v>41</v>
+        <v>1013</v>
       </c>
       <c r="E186" t="s">
-        <v>748</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>749</v>
+        <v>1468</v>
       </c>
       <c r="B187" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C187" t="s">
-        <v>751</v>
+        <v>1469</v>
       </c>
       <c r="D187" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E187" t="s">
-        <v>752</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="B188" t="s">
-        <v>754</v>
+        <v>1471</v>
       </c>
       <c r="C188" t="s">
-        <v>755</v>
+        <v>1472</v>
       </c>
       <c r="D188" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E188" t="s">
-        <v>756</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="B189" t="s">
-        <v>758</v>
+        <v>1474</v>
       </c>
       <c r="C189" t="s">
-        <v>759</v>
+        <v>1475</v>
       </c>
       <c r="D189" t="s">
-        <v>383</v>
+        <v>1013</v>
       </c>
       <c r="E189" t="s">
-        <v>760</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B190" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C190" t="s">
-        <v>763</v>
+        <v>1476</v>
       </c>
       <c r="D190" t="s">
         <v>383</v>
       </c>
       <c r="E190" t="s">
-        <v>732</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>764</v>
+        <v>1478</v>
       </c>
       <c r="B191" t="s">
-        <v>765</v>
+        <v>1479</v>
       </c>
       <c r="C191" t="s">
-        <v>766</v>
+        <v>1480</v>
       </c>
       <c r="D191" t="s">
-        <v>41</v>
+        <v>497</v>
       </c>
       <c r="E191" t="s">
-        <v>767</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B192" t="s">
-        <v>769</v>
+        <v>1482</v>
       </c>
       <c r="C192" t="s">
-        <v>770</v>
+        <v>1480</v>
       </c>
       <c r="D192" t="s">
-        <v>41</v>
+        <v>1221</v>
       </c>
       <c r="E192" t="s">
-        <v>771</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>772</v>
+        <v>1484</v>
       </c>
       <c r="B193" t="s">
-        <v>773</v>
+        <v>1485</v>
       </c>
       <c r="C193" t="s">
-        <v>774</v>
+        <v>1486</v>
       </c>
       <c r="D193" t="s">
-        <v>383</v>
+        <v>1221</v>
       </c>
       <c r="E193" t="s">
-        <v>732</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="194">
@@ -6211,118 +8230,118 @@
         <v>775</v>
       </c>
       <c r="B194" t="s">
-        <v>776</v>
+        <v>1488</v>
       </c>
       <c r="C194" t="s">
-        <v>777</v>
+        <v>1489</v>
       </c>
       <c r="D194" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E194" t="s">
-        <v>26</v>
+        <v>981</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B195" t="s">
-        <v>779</v>
+        <v>1490</v>
       </c>
       <c r="C195" t="s">
-        <v>780</v>
+        <v>1491</v>
       </c>
       <c r="D195" t="s">
-        <v>83</v>
+        <v>1013</v>
       </c>
       <c r="E195" t="s">
-        <v>781</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="B196" t="s">
-        <v>783</v>
+        <v>1492</v>
       </c>
       <c r="C196" t="s">
-        <v>784</v>
+        <v>1493</v>
       </c>
       <c r="D196" t="s">
-        <v>21</v>
+        <v>1225</v>
       </c>
       <c r="E196" t="s">
-        <v>785</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="B197" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C197" t="s">
         <v>788</v>
       </c>
       <c r="D197" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E197" t="s">
-        <v>789</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>790</v>
+        <v>1496</v>
       </c>
       <c r="B198" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="C198" t="s">
-        <v>792</v>
+        <v>1497</v>
       </c>
       <c r="D198" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E198" t="s">
-        <v>793</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>794</v>
+        <v>1499</v>
       </c>
       <c r="B199" t="s">
-        <v>795</v>
+        <v>1500</v>
       </c>
       <c r="C199" t="s">
-        <v>792</v>
+        <v>1501</v>
       </c>
       <c r="D199" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E199" t="s">
-        <v>26</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="B200" t="s">
-        <v>797</v>
+        <v>1502</v>
       </c>
       <c r="C200" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="D200" t="s">
-        <v>799</v>
+        <v>1059</v>
       </c>
       <c r="E200" t="s">
-        <v>800</v>
+        <v>760</v>
       </c>
     </row>
     <row r="201">
@@ -6330,152 +8349,152 @@
         <v>801</v>
       </c>
       <c r="B201" t="s">
-        <v>802</v>
+        <v>1503</v>
       </c>
       <c r="C201" t="s">
         <v>803</v>
       </c>
       <c r="D201" t="s">
-        <v>83</v>
+        <v>1504</v>
       </c>
       <c r="E201" t="s">
-        <v>804</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="B202" t="s">
-        <v>806</v>
+        <v>1506</v>
       </c>
       <c r="C202" t="s">
         <v>807</v>
       </c>
       <c r="D202" t="s">
-        <v>21</v>
+        <v>1059</v>
       </c>
       <c r="E202" t="s">
-        <v>808</v>
+        <v>771</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>809</v>
+        <v>1507</v>
       </c>
       <c r="B203" t="s">
-        <v>810</v>
+        <v>1508</v>
       </c>
       <c r="C203" t="s">
-        <v>811</v>
+        <v>1509</v>
       </c>
       <c r="D203" t="s">
-        <v>812</v>
+        <v>497</v>
       </c>
       <c r="E203" t="s">
-        <v>813</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>814</v>
+        <v>1511</v>
       </c>
       <c r="B204" t="s">
-        <v>815</v>
+        <v>1512</v>
       </c>
       <c r="C204" t="s">
-        <v>816</v>
+        <v>1513</v>
       </c>
       <c r="D204" t="s">
-        <v>79</v>
+        <v>1514</v>
       </c>
       <c r="E204" t="s">
-        <v>817</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B205" t="s">
-        <v>819</v>
+        <v>1516</v>
       </c>
       <c r="C205" t="s">
-        <v>820</v>
+        <v>1517</v>
       </c>
       <c r="D205" t="s">
-        <v>21</v>
+        <v>1201</v>
       </c>
       <c r="E205" t="s">
-        <v>26</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B206" t="s">
-        <v>822</v>
+        <v>1519</v>
       </c>
       <c r="C206" t="s">
-        <v>823</v>
+        <v>1520</v>
       </c>
       <c r="D206" t="s">
-        <v>79</v>
+        <v>1013</v>
       </c>
       <c r="E206" t="s">
-        <v>824</v>
+        <v>981</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>825</v>
+        <v>1521</v>
       </c>
       <c r="B207" t="s">
-        <v>826</v>
+        <v>1522</v>
       </c>
       <c r="C207" t="s">
-        <v>827</v>
+        <v>1523</v>
       </c>
       <c r="D207" t="s">
-        <v>21</v>
+        <v>363</v>
       </c>
       <c r="E207" t="s">
-        <v>828</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>829</v>
+        <v>1525</v>
       </c>
       <c r="B208" t="s">
-        <v>830</v>
+        <v>1526</v>
       </c>
       <c r="C208" t="s">
-        <v>831</v>
+        <v>1527</v>
       </c>
       <c r="D208" t="s">
-        <v>79</v>
+        <v>1013</v>
       </c>
       <c r="E208" t="s">
-        <v>832</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>833</v>
+        <v>1529</v>
       </c>
       <c r="B209" t="s">
-        <v>834</v>
+        <v>1530</v>
       </c>
       <c r="C209" t="s">
-        <v>835</v>
+        <v>1531</v>
       </c>
       <c r="D209" t="s">
-        <v>383</v>
+        <v>83</v>
       </c>
       <c r="E209" t="s">
-        <v>732</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="210">
@@ -6483,67 +8502,67 @@
         <v>836</v>
       </c>
       <c r="B210" t="s">
-        <v>837</v>
+        <v>1533</v>
       </c>
       <c r="C210" t="s">
-        <v>838</v>
+        <v>1534</v>
       </c>
       <c r="D210" t="s">
-        <v>21</v>
+        <v>1059</v>
       </c>
       <c r="E210" t="s">
-        <v>839</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="B211" t="s">
-        <v>841</v>
+        <v>1536</v>
       </c>
       <c r="C211" t="s">
-        <v>842</v>
+        <v>1537</v>
       </c>
       <c r="D211" t="s">
-        <v>383</v>
+        <v>1211</v>
       </c>
       <c r="E211" t="s">
-        <v>732</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>843</v>
+        <v>1539</v>
       </c>
       <c r="B212" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C212" t="s">
-        <v>845</v>
+        <v>1540</v>
       </c>
       <c r="D212" t="s">
-        <v>383</v>
+        <v>849</v>
       </c>
       <c r="E212" t="s">
-        <v>732</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>846</v>
+        <v>1542</v>
       </c>
       <c r="B213" t="s">
-        <v>847</v>
+        <v>1543</v>
       </c>
       <c r="C213" t="s">
-        <v>848</v>
+        <v>1544</v>
       </c>
       <c r="D213" t="s">
-        <v>849</v>
+        <v>497</v>
       </c>
       <c r="E213" t="s">
-        <v>850</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="214">
@@ -6551,50 +8570,50 @@
         <v>851</v>
       </c>
       <c r="B214" t="s">
-        <v>852</v>
+        <v>1546</v>
       </c>
       <c r="C214" t="s">
-        <v>853</v>
+        <v>1547</v>
       </c>
       <c r="D214" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E214" t="s">
-        <v>26</v>
+        <v>981</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>854</v>
+        <v>1548</v>
       </c>
       <c r="B215" t="s">
-        <v>855</v>
+        <v>1549</v>
       </c>
       <c r="C215" t="s">
-        <v>856</v>
+        <v>1550</v>
       </c>
       <c r="D215" t="s">
-        <v>117</v>
+        <v>497</v>
       </c>
       <c r="E215" t="s">
-        <v>857</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>858</v>
+        <v>1552</v>
       </c>
       <c r="B216" t="s">
-        <v>859</v>
+        <v>1553</v>
       </c>
       <c r="C216" t="s">
-        <v>860</v>
+        <v>1554</v>
       </c>
       <c r="D216" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="E216" t="s">
-        <v>861</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="217">
@@ -6602,16 +8621,16 @@
         <v>862</v>
       </c>
       <c r="B217" t="s">
-        <v>863</v>
+        <v>1556</v>
       </c>
       <c r="C217" t="s">
-        <v>864</v>
+        <v>1557</v>
       </c>
       <c r="D217" t="s">
-        <v>702</v>
+        <v>1221</v>
       </c>
       <c r="E217" t="s">
-        <v>865</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="218">
@@ -6619,186 +8638,186 @@
         <v>866</v>
       </c>
       <c r="B218" t="s">
-        <v>867</v>
+        <v>1559</v>
       </c>
       <c r="C218" t="s">
-        <v>868</v>
+        <v>1560</v>
       </c>
       <c r="D218" t="s">
-        <v>79</v>
+        <v>962</v>
       </c>
       <c r="E218" t="s">
-        <v>869</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>870</v>
+        <v>843</v>
       </c>
       <c r="B219" t="s">
-        <v>871</v>
+        <v>1562</v>
       </c>
       <c r="C219" t="s">
-        <v>872</v>
+        <v>1560</v>
       </c>
       <c r="D219" t="s">
-        <v>79</v>
+        <v>1013</v>
       </c>
       <c r="E219" t="s">
-        <v>873</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="B220" t="s">
-        <v>875</v>
+        <v>1564</v>
       </c>
       <c r="C220" t="s">
-        <v>876</v>
+        <v>1565</v>
       </c>
       <c r="D220" t="s">
-        <v>877</v>
+        <v>962</v>
       </c>
       <c r="E220" t="s">
-        <v>878</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B221" t="s">
-        <v>880</v>
+        <v>1567</v>
       </c>
       <c r="C221" t="s">
-        <v>881</v>
+        <v>1568</v>
       </c>
       <c r="D221" t="s">
-        <v>21</v>
+        <v>1569</v>
       </c>
       <c r="E221" t="s">
-        <v>26</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>882</v>
+        <v>1571</v>
       </c>
       <c r="B222" t="s">
-        <v>883</v>
+        <v>1572</v>
       </c>
       <c r="C222" t="s">
-        <v>881</v>
+        <v>1573</v>
       </c>
       <c r="D222" t="s">
-        <v>159</v>
+        <v>1013</v>
       </c>
       <c r="E222" t="s">
-        <v>884</v>
+        <v>981</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>885</v>
+        <v>1574</v>
       </c>
       <c r="B223" t="s">
-        <v>886</v>
+        <v>1575</v>
       </c>
       <c r="C223" t="s">
-        <v>887</v>
+        <v>1576</v>
       </c>
       <c r="D223" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E223" t="s">
-        <v>888</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>889</v>
+        <v>1578</v>
       </c>
       <c r="B224" t="s">
-        <v>890</v>
+        <v>1579</v>
       </c>
       <c r="C224" t="s">
-        <v>887</v>
+        <v>1580</v>
       </c>
       <c r="D224" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E224" t="s">
-        <v>26</v>
+        <v>981</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>891</v>
+        <v>1581</v>
       </c>
       <c r="B225" t="s">
-        <v>892</v>
+        <v>1582</v>
       </c>
       <c r="C225" t="s">
-        <v>893</v>
+        <v>1583</v>
       </c>
       <c r="D225" t="s">
-        <v>383</v>
+        <v>1079</v>
       </c>
       <c r="E225" t="s">
-        <v>732</v>
+        <v>473</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B226" t="s">
-        <v>895</v>
+        <v>1584</v>
       </c>
       <c r="C226" t="s">
-        <v>896</v>
+        <v>1585</v>
       </c>
       <c r="D226" t="s">
-        <v>383</v>
+        <v>1013</v>
       </c>
       <c r="E226" t="s">
-        <v>732</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>897</v>
+        <v>1587</v>
       </c>
       <c r="B227" t="s">
-        <v>898</v>
+        <v>1588</v>
       </c>
       <c r="C227" t="s">
-        <v>899</v>
+        <v>1589</v>
       </c>
       <c r="D227" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E227" t="s">
-        <v>26</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>900</v>
+        <v>1591</v>
       </c>
       <c r="B228" t="s">
-        <v>901</v>
+        <v>1592</v>
       </c>
       <c r="C228" t="s">
-        <v>902</v>
+        <v>1593</v>
       </c>
       <c r="D228" t="s">
-        <v>903</v>
+        <v>1013</v>
       </c>
       <c r="E228" t="s">
-        <v>904</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="229">
@@ -6806,237 +8825,254 @@
         <v>905</v>
       </c>
       <c r="B229" t="s">
-        <v>906</v>
+        <v>1595</v>
       </c>
       <c r="C229" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="D229" t="s">
-        <v>383</v>
+        <v>1013</v>
       </c>
       <c r="E229" t="s">
-        <v>732</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="B230" t="s">
-        <v>909</v>
+        <v>1596</v>
       </c>
       <c r="C230" t="s">
-        <v>910</v>
+        <v>1597</v>
       </c>
       <c r="D230" t="s">
-        <v>911</v>
+        <v>1221</v>
       </c>
       <c r="E230" t="s">
-        <v>912</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="B231" t="s">
-        <v>914</v>
+        <v>1598</v>
       </c>
       <c r="C231" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D231" t="s">
-        <v>877</v>
+        <v>1013</v>
       </c>
       <c r="E231" t="s">
-        <v>916</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="B232" t="s">
-        <v>918</v>
+        <v>1599</v>
       </c>
       <c r="C232" t="s">
-        <v>919</v>
+        <v>1600</v>
       </c>
       <c r="D232" t="s">
-        <v>877</v>
+        <v>352</v>
       </c>
       <c r="E232" t="s">
-        <v>920</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="B233" t="s">
-        <v>922</v>
+        <v>1602</v>
       </c>
       <c r="C233" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D233" t="s">
-        <v>924</v>
+        <v>352</v>
       </c>
       <c r="E233" t="s">
-        <v>925</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>926</v>
+        <v>1604</v>
       </c>
       <c r="B234" t="s">
-        <v>927</v>
+        <v>1605</v>
       </c>
       <c r="C234" t="s">
         <v>919</v>
       </c>
       <c r="D234" t="s">
-        <v>21</v>
+        <v>1013</v>
       </c>
       <c r="E234" t="s">
-        <v>26</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>928</v>
+        <v>1607</v>
       </c>
       <c r="B235" t="s">
-        <v>929</v>
+        <v>1608</v>
       </c>
       <c r="C235" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="D235" t="s">
-        <v>930</v>
+        <v>1013</v>
       </c>
       <c r="E235" t="s">
-        <v>931</v>
+        <v>981</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>932</v>
+        <v>1609</v>
       </c>
       <c r="B236" t="s">
-        <v>933</v>
+        <v>1610</v>
       </c>
       <c r="C236" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D236" t="s">
-        <v>92</v>
+        <v>1013</v>
       </c>
       <c r="E236" t="s">
-        <v>934</v>
+        <v>981</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B237" t="s">
-        <v>936</v>
+        <v>1611</v>
       </c>
       <c r="C237" t="s">
         <v>919</v>
       </c>
       <c r="D237" t="s">
-        <v>937</v>
+        <v>1221</v>
       </c>
       <c r="E237" t="s">
-        <v>938</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B238" t="s">
-        <v>940</v>
+        <v>1613</v>
       </c>
       <c r="C238" t="s">
         <v>919</v>
       </c>
       <c r="D238" t="s">
-        <v>92</v>
+        <v>1221</v>
       </c>
       <c r="E238" t="s">
-        <v>934</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>941</v>
+        <v>1615</v>
       </c>
       <c r="B239" t="s">
-        <v>942</v>
+        <v>1616</v>
       </c>
       <c r="C239" t="s">
         <v>919</v>
       </c>
       <c r="D239" t="s">
-        <v>943</v>
+        <v>352</v>
       </c>
       <c r="E239" t="s">
-        <v>944</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>945</v>
+        <v>1618</v>
       </c>
       <c r="B240" t="s">
-        <v>946</v>
+        <v>1619</v>
       </c>
       <c r="C240" t="s">
         <v>919</v>
       </c>
       <c r="D240" t="s">
-        <v>947</v>
+        <v>1013</v>
       </c>
       <c r="E240" t="s">
-        <v>948</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>949</v>
+        <v>1620</v>
       </c>
       <c r="B241" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C241" t="s">
         <v>919</v>
       </c>
       <c r="D241" t="s">
-        <v>92</v>
+        <v>947</v>
       </c>
       <c r="E241" t="s">
-        <v>934</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B242" t="s">
-        <v>952</v>
+        <v>1622</v>
       </c>
       <c r="C242" t="s">
         <v>919</v>
       </c>
       <c r="D242" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E242" t="s">
-        <v>953</v>
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C243" t="s">
+        <v>919</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1626</v>
       </c>
     </row>
   </sheetData>
